--- a/results/extracted_data_process_2.xlsx
+++ b/results/extracted_data_process_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO18"/>
+  <dimension ref="A1:BO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,14 +773,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao boekje VDF-tekst geschoond.json</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>518</v>
       </c>
       <c r="C2" t="n">
-        <v>10020</v>
+        <v>518009</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -789,19 +789,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/07/2024</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -811,49 +819,63 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Job group 1: Simple activities carried out according to precise instructions on direction and/or under direct supervision. Examples of job titles: trainee sales assistant, apprentice sales assistant, trainee warehouse employee, trainee administrative assistant.</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>15.34</v>
+        <v>14.06</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Hourly</t>
+          <t>hourly</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>15.72</v>
+        <v>2080.88</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Hourly</t>
+          <t>per 4 weeks</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>2254.29</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -872,12 +894,12 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>The CAO Distinguishes between 'Construction site employee' (construction site worker) with a Guaranteed Hourly Wage (Garanti) and 'Uta-employee' (Administrative/Technical Staff) with a Monthly Salary. For Uta Workers, Salaries are Specific AS A Minimum-Maxim Range, And There's A Defined Salary Progression (104% or Min After 2 Years, 110% After 4, 116% After 6). There are Separate Wage Tables for Young Workers (16-20 Years), Apprentices (BBL), and New Entrants to the Sector (Starting Table).</t>
+          <t>The wage tables effective from 01/07/2024 were created by first increasing wages by 4% and then nominally by €0.16 per hour. An annual increase is granted on January 1st. Substitution allowance: if a replacement in a higher function lasts longer than four weeks, an allowance of 15% of the starting salary of the replaced function's scale is due from the first day. The monthly wage is calculated by multiplying the hourly wage by the annual working hours and dividing by 12, or by multiplying the 4-week wage by 13/12. The monthly reference wages are based on 260 working days per year. Turnover-dependent wages are permitted, provided the average wage over a year meets the CAO standards. Diploma allowance: The employee in job group 1 or 2 receives for Assistant Druggist: EUR 11.34 gross per month; Druggist diploma: EUR 22.69 gross per month.</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -914,14 +936,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao boekje VDF-tekst geschoond.json</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>518</v>
       </c>
       <c r="C3" t="n">
-        <v>10020</v>
+        <v>518009</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -930,19 +952,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/07/2024</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -952,49 +982,63 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Job group 2: Simple activities requiring a certain degree of professional and business knowledge, performed with some degree of independence, although under direct supervision. Possession of the 'Sales in the Drugstore' diploma is required. Examples of job titles: sales assistant, warehouse employee, administrative assistant.</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>16.24</v>
+        <v>14.27</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Hourly</t>
+          <t>hourly</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>16.65</v>
+        <v>2111.96</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Hourly</t>
+          <t>per 4 weeks</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>2287.96</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -1013,12 +1057,12 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>The CAO Distinguishes between 'Construction site employee' (construction site worker) with a Guaranteed Hourly Wage (Garanti) and 'Uta-employee' (Administrative/Technical Staff) with a Monthly Salary. For Uta Workers, Salaries are Specific AS A Minimum-Maxim Range, And There's A Defined Salary Progression (104% or Min After 2 Years, 110% After 4, 116% After 6). There are Separate Wage Tables for Young Workers (16-20 Years), Apprentices (BBL), and New Entrants to the Sector (Starting Table).</t>
+          <t>The wage tables effective from 01/07/2024 were created by first increasing wages by 4% and then nominally by €0.16 per hour. An annual increase is granted on January 1st. Substitution allowance: if a replacement in a higher function lasts longer than four weeks, an allowance of 15% of the starting salary of the replaced function's scale is due from the first day. The monthly wage is calculated by multiplying the hourly wage by the annual working hours and dividing by 12, or by multiplying the 4-week wage by 13/12. The monthly reference wages are based on 260 working days per year. Turnover-dependent wages are permitted, provided the average wage over a year meets the CAO standards. Diploma allowance: The employee in job group 1 or 2 receives for Assistant Druggist: EUR 11.34 gross per month; Druggist diploma: EUR 22.69 gross per month.</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1055,14 +1099,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao boekje VDF-tekst geschoond.json</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>518</v>
       </c>
       <c r="C4" t="n">
-        <v>10020</v>
+        <v>518009</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1071,19 +1115,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/07/2024</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1093,49 +1145,63 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Job group 3: Independent activities requiring extensive professional and business knowledge, with occasional supervision of a few employees in job groups 1 and 2. Possession of the Assistant Druggist diploma is required for the position of first sales assistant. Examples of job titles: first sales assistant, first warehouse employee, first administrative assistant.</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>17.26</v>
+        <v>14.85</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Hourly</t>
+          <t>hourly</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>17.69</v>
+        <v>2197.8</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Hourly</t>
+          <t>per 4 weeks</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>2380.95</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -1154,12 +1220,12 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>The CAO Distinguishes between 'Construction site employee' (construction site worker) with a Guaranteed Hourly Wage (Garanti) and 'Uta-employee' (Administrative/Technical Staff) with a Monthly Salary. For Uta Workers, Salaries are Specific AS A Minimum-Maxim Range, And There's A Defined Salary Progression (104% or Min After 2 Years, 110% After 4, 116% After 6). There are Separate Wage Tables for Young Workers (16-20 Years), Apprentices (BBL), and New Entrants to the Sector (Starting Table).</t>
+          <t>The wage tables effective from 01/07/2024 were created by first increasing wages by 4% and then nominally by €0.16 per hour. An annual increase is granted on January 1st. Substitution allowance: if a replacement in a higher function lasts longer than four weeks, an allowance of 15% of the starting salary of the replaced function's scale is due from the first day. The monthly wage is calculated by multiplying the hourly wage by the annual working hours and dividing by 12, or by multiplying the 4-week wage by 13/12. The monthly reference wages are based on 260 working days per year. Turnover-dependent wages are permitted, provided the average wage over a year meets the CAO standards. Diploma allowance: The employee in job group 3 or 4 receives for the Druggist diploma: EUR 22.69 gross per month.</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1196,14 +1262,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao boekje VDF-tekst geschoond.json</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>518</v>
       </c>
       <c r="C5" t="n">
-        <v>10020</v>
+        <v>518009</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1212,19 +1278,27 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/07/2024</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1234,49 +1308,63 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Job group 4: Independent activities requiring extensive professional and business knowledge, with supervision of a few employees in job groups 1, 2, and 3. Possession of the Assistant Druggist diploma is required for the position of acting manager or assistant branch manager. Examples of job titles: acting manager, assistant branch manager, assistant warehouse chief, assistant department head.</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>18.46</v>
+        <v>14.9</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Hourly</t>
+          <t>hourly</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>18.92</v>
+        <v>2205.2</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Hourly</t>
+          <t>per 4 weeks</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>2388.97</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -1295,12 +1383,12 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>The CAO Distinguishes between 'Construction site employee' (construction site worker) with a Guaranteed Hourly Wage (Garanti) and 'Uta-employee' (Administrative/Technical Staff) with a Monthly Salary. For Uta Workers, Salaries are Specific AS A Minimum-Maxim Range, And There's A Defined Salary Progression (104% or Min After 2 Years, 110% After 4, 116% After 6). There are Separate Wage Tables for Young Workers (16-20 Years), Apprentices (BBL), and New Entrants to the Sector (Starting Table).</t>
+          <t>The wage tables effective from 01/07/2024 were created by first increasing wages by 4% and then nominally by €0.16 per hour. An annual increase is granted on January 1st. Substitution allowance: if a replacement in a higher function lasts longer than four weeks, an allowance of 15% of the starting salary of the replaced function's scale is due from the first day. The monthly wage is calculated by multiplying the hourly wage by the annual working hours and dividing by 12, or by multiplying the 4-week wage by 13/12. The monthly reference wages are based on 260 working days per year. Turnover-dependent wages are permitted, provided the average wage over a year meets the CAO standards. Diploma allowance: The employee in job group 3 or 4 receives for the Druggist diploma: EUR 22.69 gross per month.</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1337,14 +1425,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao boekje VDF-tekst geschoond.json</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>518</v>
       </c>
       <c r="C6" t="n">
-        <v>10020</v>
+        <v>518009</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1353,19 +1441,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/07/2024</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1375,49 +1471,63 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>One</t>
+          <t>Job group 5: Independent activities requiring special professional and business knowledge, as well as the complete management of a drugstore with a maximum of 5 full-time equivalents (FTEs). Possession of the Druggist professional diploma is required. Examples of job titles: manager, branch manager, branch administrator, warehouse chief, department head.</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>19.38</v>
+        <v>15.62</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Hourly</t>
+          <t>hourly</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>19.86</v>
+        <v>2311.76</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Hourly</t>
+          <t>per 4 weeks</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>2504.41</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
@@ -1436,12 +1546,12 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>The CAO Distinguishes between 'Construction site employee' (construction site worker) with a Guaranteed Hourly Wage (Garanti) and 'Uta-employee' (Administrative/Technical Staff) with a Monthly Salary. For Uta Workers, Salaries are Specific AS A Minimum-Maxim Range, And There's A Defined Salary Progression (104% or Min After 2 Years, 110% After 4, 116% After 6). There are Separate Wage Tables for Young Workers (16-20 Years), Apprentices (BBL), and New Entrants to the Sector (Starting Table).</t>
+          <t>The wage tables effective from 01/07/2024 were created by first increasing wages by 4% and then nominally by €0.16 per hour. An annual increase is granted on January 1st. Substitution allowance: if a replacement in a higher function lasts longer than four weeks, an allowance of 15% of the starting salary of the replaced function's scale is due from the first day. The monthly wage is calculated by multiplying the hourly wage by the annual working hours and dividing by 12, or by multiplying the 4-week wage by 13/12. The monthly reference wages are based on 260 working days per year. Turnover-dependent wages are permitted, provided the average wage over a year meets the CAO standards.</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1478,14 +1588,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao boekje VDF-tekst geschoond.json</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>518</v>
       </c>
       <c r="C7" t="n">
-        <v>10020</v>
+        <v>518009</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1494,19 +1604,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/07/2024</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1516,49 +1634,63 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Function level 1 (minimum)</t>
+          <t>Job group 6: Independent activities requiring special professional and business knowledge, as well as the complete management of a drugstore with more than 5 full-time equivalents (FTEs). Possession of the Druggist professional diploma is required. Examples of job titles: manager, branch manager, branch administrator, warehouse chief, department head.</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2204.92</v>
+        <v>16.85</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>hourly</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2260.04</v>
+        <v>2493.8</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>per 4 weeks</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>2701.62</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>monthly</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -1577,12 +1709,12 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>The CAO Distinguishes between 'Construction site employee' (construction site worker) with a Guaranteed Hourly Wage (Garanti) and 'Uta-employee' (Administrative/Technical Staff) with a Monthly Salary. For Uta Workers, Salaries are Specific AS A Minimum-Maxim Range, And There's A Defined Salary Progression (104% or Min After 2 Years, 110% After 4, 116% After 6). There are Separate Wage Tables for Young Workers (16-20 Years), Apprentices (BBL), and New Entrants to the Sector (Starting Table).</t>
+          <t>The wage tables effective from 01/07/2024 were created by first increasing wages by 4% and then nominally by €0.16 per hour. An annual increase is granted on January 1st. Substitution allowance: if a replacement in a higher function lasts longer than four weeks, an allowance of 15% of the starting salary of the replaced function's scale is due from the first day. The monthly wage is calculated by multiplying the hourly wage by the annual working hours and dividing by 12, or by multiplying the 4-week wage by 13/12. The monthly reference wages are based on 260 working days per year. Turnover-dependent wages are permitted, provided the average wage over a year meets the CAO standards.</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -1619,35 +1751,43 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao boekje VDF-tekst geschoond.json</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>518</v>
       </c>
       <c r="C8" t="n">
-        <v>10020</v>
+        <v>518009</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wage</t>
+          <t>Pension</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/07/2024</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1655,47 +1795,15 @@
           <t>no</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Function level 2 (minimum)</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>2423.66</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>2484.25</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1716,26 +1824,34 @@
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>The CAO Distinguishes between 'Construction site employee' (construction site worker) with a Guaranteed Hourly Wage (Garanti) and 'Uta-employee' (Administrative/Technical Staff) with a Monthly Salary. For Uta Workers, Salaries are Specific AS A Minimum-Maxim Range, And There's A Defined Salary Progression (104% or Min After 2 Years, 110% After 4, 116% After 6). There are Separate Wage Tables for Young Workers (16-20 Years), Apprentices (BBL), and New Entrants to the Sector (Starting Table).</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>21 years and older</t>
-        </is>
-      </c>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>In the 'Working Shorter' scheme, pension accrual is maintained at the level it was before the scheme started. The employee and employer continue to pay the premium based on the 100% salary level at the start of the scheme.</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>A 'Working Shorter' scheme is available. For full-time employees participating before July 1, 2019, who are 58 years or older, they can work shorter hours at their request. The adjusted wage is a percentage of the salary earned until then, according to the following arrangement: - 58 years old, 80% work for 90% of the wage. - 59 years old, 70% work for 85% of the wage. - 60 years old, 60% work for 80% of the wage. - 61 years old, 50% work for 75% of the wage. - 62 years old, 50% work for 75% of the wage. For employees who wish to work shorter hours from July 1, 2019, the following applies: a full-time employee can request to work shorter hours 5 years before the AOW-eligible age. The arrangement is: - 5 years before AOW date, 80% work for 90% of the wage. - 4 years before AOW date, 70% work for 85% of the wage. - 3 years before AOW date, 60% work for 80% of the wage. - From 2 years before the AOW date until the AOW date: 50% work for 75% of the wage.</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>The employment relationship ends upon reaching the AOW-eligible age.</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>The 'Working Shorter' pre-retirement scheme can be started by full-time employees from the age of 58 (for participants before July 1, 2019) or 5 years before the AOW-eligible age (for participants from July 1, 2019).</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>The agreement applies to all employees. For those entitled to AOW, the Act on Working after the AOW-eligible age applies.</t>
+        </is>
+      </c>
       <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="inlineStr"/>
@@ -1760,35 +1876,43 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao boekje VDF-tekst geschoond.json</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>518</v>
       </c>
       <c r="C9" t="n">
-        <v>10020</v>
+        <v>518009</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wage</t>
+          <t>Leave</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/07/2024</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1796,47 +1920,15 @@
           <t>no</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Function level 3 (minimum)</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>2703.91</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>2771.51</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1857,32 +1949,44 @@
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>The CAO Distinguishes between 'Construction site employee' (construction site worker) with a Guaranteed Hourly Wage (Garanti) and 'Uta-employee' (Administrative/Technical Staff) with a Monthly Salary. For Uta Workers, Salaries are Specific AS A Minimum-Maxim Range, And There's A Defined Salary Progression (104% or Min After 2 Years, 110% After 4, 116% After 6). There are Separate Wage Tables for Young Workers (16-20 Years), Apprentices (BBL), and New Entrants to the Sector (Starting Table).</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>21 years and older</t>
-        </is>
-      </c>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>Leave for the partner is granted during the birth plus once the number of weekly working hours for birth leave. Subsequently, there is a right to five times the number of weekly working hours as additional birth leave, to be taken within 6 months of the child's birth.</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>The partner's leave during birth and the subsequent week is with retention of pay. For the additional five weeks of birth leave, a benefit can be requested from the UWV. The one-day wage deduction for the first day of sickness does not apply in case of pregnancy leave or pregnancy-related disability.</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Durable cohabitation, if previously communicated to the employer, is treated the same as marriage for leave purposes.</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>A full-time employee (average 37 hours/week) is entitled to 25 working days of vacation per year with pay, which is equivalent to 185 hours. Extra days are granted based on years of service: 3 days for 25 to 40 years, and 5 days for 40 or more years. Extra days are also granted based on age relative to the AOW date: 1 day starting 17 years before, 2 days starting 12 years before, and 4 days starting 7 years before the AOW date.</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>days or hours per year</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>Part-time employees or those starting/leaving during the year accrue vacation pro-rata. An employee is entitled to at least three consecutive weeks of vacation, provided their vacation balance is sufficient. This vacation should preferably be taken between May and September. Extra vacation days for years of service and age are not cumulative; the higher number of days applies. Employees are entitled to a holiday allowance of 8% of the wages earned in a holiday year, paid out no later than May. Holiday workers have their right to vacation (20 days per year pro-rata) and holiday allowance (8%) settled at the end of employment through a payment of 15.7% of their earned wages.</t>
+        </is>
+      </c>
       <c r="BB9" t="inlineStr"/>
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
@@ -1901,35 +2005,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao boekje VDF-tekst geschoond.json</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>518</v>
       </c>
       <c r="C10" t="n">
-        <v>10020</v>
+        <v>518009</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wage</t>
+          <t>Termination</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/07/2024</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1937,47 +2049,15 @@
           <t>no</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Function level 4 (minimum)</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>3069.92</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>3146.67</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -1998,21 +2078,9 @@
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>The CAO Distinguishes between 'Construction site employee' (construction site worker) with a Guaranteed Hourly Wage (Garanti) and 'Uta-employee' (Administrative/Technical Staff) with a Monthly Salary. For Uta Workers, Salaries are Specific AS A Minimum-Maxim Range, And There's A Defined Salary Progression (104% or Min After 2 Years, 110% After 4, 116% After 6). There are Separate Wage Tables for Young Workers (16-20 Years), Apprentices (BBL), and New Entrants to the Sector (Starting Table).</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>21 years and older</t>
-        </is>
-      </c>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
@@ -2024,12 +2092,36 @@
       <c r="AY10" t="inlineStr"/>
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
-      <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>Employment ends through notice with an observance of a notice period. The specific duration of the notice period is not mentioned.</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>If the employee does not agree with the termination or the notice period, prior permission from the UWV or the cantonal court is required. Termination occurs without a notice period in several cases: during an agreed probationary period, upon reaching the AOW-eligible age, at the end of a fixed-term contract, for an urgent reason (summary dismissal), by a court decision, or upon the death of the employee. An employer cannot terminate employment based solely on the employee being registered as a representative of a trade union party to this CAO. In case of termination due to company closure, sale, downsizing, merger, or reorganization, the decision can only be made after consultation with the employee organizations. Upon the death of the employee, their next of kin will receive the salary for the month in which the death occurs.</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>Employment ends through notice with an observance of a notice period. The specific duration of the notice period is not mentioned.</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>Notice is preferably given in writing. The notice is given to take effect at the end of a wage payment period.</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>Employment can be terminated during an agreed probationary period.</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>During the probationary period, either the employer or the employee can terminate the employment without a notice period.</t>
+        </is>
+      </c>
       <c r="BH10" t="inlineStr"/>
       <c r="BI10" t="inlineStr"/>
       <c r="BJ10" t="inlineStr"/>
@@ -2042,35 +2134,43 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao boekje VDF-tekst geschoond.json</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>518</v>
       </c>
       <c r="C11" t="n">
-        <v>10020</v>
+        <v>518009</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wage</t>
+          <t>Overtime</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/07/2024</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2078,47 +2178,15 @@
           <t>no</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Function level 5 (minimum)</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>3546.82</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>3635.49</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2139,21 +2207,9 @@
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>The CAO Distinguishes between 'Construction site employee' (construction site worker) with a Guaranteed Hourly Wage (Garanti) and 'Uta-employee' (Administrative/Technical Staff) with a Monthly Salary. For Uta Workers, Salaries are Specific AS A Minimum-Maxim Range, And There's A Defined Salary Progression (104% or Min After 2 Years, 110% After 4, 116% After 6). There are Separate Wage Tables for Young Workers (16-20 Years), Apprentices (BBL), and New Entrants to the Sector (Starting Table).</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>21 years and older</t>
-        </is>
-      </c>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
       <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
@@ -2171,47 +2227,79 @@
       <c r="BE11" t="inlineStr"/>
       <c r="BF11" t="inlineStr"/>
       <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr"/>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>For each hour of overtime, the wage is paid out, increased by a surcharge of 30%. If overtime hours fall within a time period that already has a surcharge according to the time-scale model, the surcharges are added together. Employer and employee can agree to provide extra free time instead of payment, corresponding to the wage amount that would have been paid for the overtime. This free time must be given within one month after the overtime was performed.</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>Overtime is defined as work exceeding: 9 hours per day (with a 30-minute grace period once a week), 45 hours per week, an average of 40 hours per week over 4 weeks, or an average of 37 hours per week over 26 weeks. A part-time employee can be required to work up to 130% of their contract hours per week. Working more than six consecutive days is not permitted. The provisions on overtime do not apply to employees in job groups 5 and 6, nor to employees not classified in job groups.</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>A part-time employee with a fixed monthly or weekly wage is guaranteed a minimum of 60% of their contracted hours per week.</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>Surcharges on the hourly wage apply according to a time-scale model. Monday to Saturday: 25% for 05:00-07:00, 25% for 19:00-21:00, 50% for 21:00-24:00, and 75% for 00:00-05:00. Sunday: 100% for 07:00-19:00, 125% for 05:00-07:00 and 19:00-21:00, 150% for 21:00-24:00, and 175% for 00:00-05:00. For work on recognized public holidays, the hourly wage is paid plus a 100% surcharge. Surcharges are compensated in free time, to be taken within 26 weeks. If not possible, the surcharge is paid in cash.</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>Overtime is triggered by working more than 9 hours/day, 45 hours/week, or an average of 40 hours/week over 4 weeks, or an average of 37 hours/week over 26 weeks. A part-time employee who works more than 37 hours in a week is eligible for an overtime surcharge for that week, provided other conditions are met.</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>An employee aged 55 or older cannot be obligated to work overtime.</t>
+        </is>
+      </c>
       <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao boekje VDF-tekst geschoond.json</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>518</v>
       </c>
       <c r="C12" t="n">
-        <v>10020</v>
+        <v>518009</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wage</t>
+          <t>Training</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/07/2024</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2219,47 +2307,15 @@
           <t>no</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Function level 6 (minimum)</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>4166.68</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>4270.85</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -2280,21 +2336,9 @@
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>The CAO Distinguishes between 'Construction site employee' (construction site worker) with a Guaranteed Hourly Wage (Garanti) and 'Uta-employee' (Administrative/Technical Staff) with a Monthly Salary. For Uta Workers, Salaries are Specific AS A Minimum-Maxim Range, And There's A Defined Salary Progression (104% or Min After 2 Years, 110% After 4, 116% After 6). There are Separate Wage Tables for Young Workers (16-20 Years), Apprentices (BBL), and New Entrants to the Sector (Starting Table).</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>21 years and older</t>
-        </is>
-      </c>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2318,41 +2362,53 @@
       <c r="BK12" t="inlineStr"/>
       <c r="BL12" t="inlineStr"/>
       <c r="BM12" t="inlineStr"/>
-      <c r="BN12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>The costs of necessary and relevant training, in terms of money and time, are borne by the employer. Several vocational training courses are mandatory for placement in specific job groups: 'Sales in the Drugstore' for group 2, 'Assistant Druggist' for groups 3 &amp; 4, and 'Druggist Diploma' for groups 5 &amp; 6. An employer must offer the 'Sales in the Drugstore' course to new employees at its expense. Employees from function group 2 upwards can request to follow the 'Assistant Druggist' and 'Druggist Diploma' courses at the employer's expense if they show ambition and suitability. An employee in group 1 is promoted to group 2 after twelve months or upon obtaining the 'Sales in the Drugstore' diploma. Extraordinary leave with pay is granted for taking exams for necessary professional training. Leave of up to five days is granted for participating in a pre-retirement course once in the 3 years before retirement. Union members can take up to 3 days of leave per year for courses organized by their union, subject to employer approval. Employees with at least 2 years of service will be offered a digital career scan. Holiday workers are not required to take the 'Sales in the Drugstore' course. Special rules apply to partially school-age employees regarding working hours and school attendance.</t>
+        </is>
+      </c>
       <c r="BO12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao boekje VDF-tekst geschoond.json</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>518</v>
       </c>
       <c r="C13" t="n">
-        <v>10020</v>
+        <v>518009</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Pension</t>
+          <t>Homeoffice</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>31/12/2023</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/07/2024</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2392,21 +2448,9 @@
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>Participation in The BPFBouw Pension Fund is Mandatory. The Pension Scheme Includes An Average Pay Scheme (Mediterranean scheme) and A Disability Pension. For 2022, The Premium for the Average Pay Scheme is 26% of the Pension Base. The Premium Distribution between Employer and Employee is detailed: for a construction site worker, it is 65.6% employer and 34.4% employee; for a uta worker, it is 60.6% employer and 39.4% employee. This is based on a premium levy or 22.2% (construction site) OR 20.8% (UTA) or the pension base. The Disability Pension Premium is Split 50% by the Employer and 50% by the Employee.</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>Above a Certain Threshold ('Grens percentage'), The Premium for the Average Pay Scheme is Split 50% by the Employer and 50% by the Employee.</t>
-        </is>
-      </c>
-      <c r="AS13" t="inlineStr">
-        <is>
-          <t>The CAO refers to the Statutory State Pension Age (AOW-reasoning age).</t>
-        </is>
-      </c>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr"/>
       <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
@@ -2433,23 +2477,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao-huisartsenzorg-2022-2023-incl-Handleiding.avv.json</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>721</v>
       </c>
       <c r="C14" t="n">
-        <v>10020</v>
+        <v>721007</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Leave</t>
+          <t>Wage</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2457,11 +2501,19 @@
           <t>31/12/2023</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>08/08/2022</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2469,15 +2521,35 @@
           <t>no</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Scales 1 to 9</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>01/05/2022</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>01/05/2023</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2498,44 +2570,28 @@
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Salary tables are listed in Appendix 14. Job classification is based on the FWHZ (Functiewaardering Huisartsenzorg) system. Hourly wage is 1/165th of the basic salary based on a 38-hour work week. Basic salary is the gross monthly salary according to the FWHZ table. An annual periodic increase is granted based on performance until the scale maximum is reached. Holiday allowance is 8%. The end-of-year bonus is 7.5% in 2022 and 8.33% from 2023. Triage nurses with a recognized diploma receive an extra salary step. For the trainee scale, if the legal minimum (youth) wage is higher, it must be paid.</t>
+        </is>
+      </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
       <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr">
-        <is>
-          <t>Upon the Birth of Their Partner's Child, The Employee is Entitled to One Day of Paid Leave. Additionally, they have the right to statutory birth leave, which consists of one part equal to the number or weekly working hours, and an optional supplementary part of up to five Times the Number of Weekly Working Hours.</t>
-        </is>
-      </c>
-      <c r="AW14" t="inlineStr">
-        <is>
-          <t>For the first day of leave and the first part of the statutory Birth Leave (Equal to One Work Week), The Employer Pays The Full Agreed-Upon Wage Or Salary. For the supplementary leave of up to five week, the UWV Provides a Benefit Equal to 70% of the Daily Wage.</t>
-        </is>
-      </c>
-      <c r="AX14" t="inlineStr">
-        <is>
-          <t>This Information Pertains to Partner's Leave ('birth leave') Following Childbirth, Not Maternity Leave ('Pregnancy leave').</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AZ14" t="inlineStr">
-        <is>
-          <t>days per calendar year</t>
-        </is>
-      </c>
-      <c r="BA14" t="inlineStr">
-        <is>
-          <t>Applies to employees aged 18 and older. The Total Consists of 20 Statutory and 5 Non-Statutory Days. Construction site Workers Receive One Extra Vacation Day in Years Where There Are Five Working Days Between Christmas and New Year. Holiday Allowance is 8% of the Agreed Wage/Salary and is Part of the Employee's Individual Budget. The Pay for Five Non-Statutory Vacation Days is also provid through this individual budget.</t>
-        </is>
-      </c>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr"/>
       <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
@@ -2554,23 +2610,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao-huisartsenzorg-2022-2023-incl-Handleiding.avv.json</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>721</v>
       </c>
       <c r="C15" t="n">
-        <v>10020</v>
+        <v>721007</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Termination</t>
+          <t>Wage</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2578,11 +2634,19 @@
           <t>31/12/2023</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>08/08/2022</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2590,15 +2654,35 @@
           <t>no</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Scales 10 and higher</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>01/05/2022</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>01/05/2023</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -2619,8 +2703,16 @@
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Salary tables are listed in Appendix 14. Job classification is based on the FWHZ (Functiewaardering Huisartsenzorg) system. Hourly wage is 1/165th of the basic salary based on a 38-hour work week. Basic salary is the gross monthly salary according to the FWHZ table. An annual periodic increase is granted based on performance until the scale maximum is reached. Holiday allowance is 8%. The end-of-year bonus is 7.5% in 2022 and 8.33% from 2023. Triage nurses with a recognized diploma receive an extra salary step. For the trainee scale, if the legal minimum (youth) wage is higher, it must be paid.</t>
+        </is>
+      </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
@@ -2633,36 +2725,12 @@
       <c r="AY15" t="inlineStr"/>
       <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr">
-        <is>
-          <t>For an employment duration of less than 5 years: 1 month. For 5 to 10 years: 2 months. For 10 to 15 years: 3 months. For 15 years or longer: 4 months.</t>
-        </is>
-      </c>
-      <c r="BC15" t="inlineStr">
-        <is>
-          <t>For an employee who has reached the state guest house (aow) age, the notice period is one month. If the employer has a dismissal permit from UWV, the Notice Period is Shortened by the Duration of the UWV procedure, but with a minimum of one months remoining. For Construction Site Workers, If Summer Vacation Days Fall Within the Notice Period, The Period is Extended by That Number of Days.</t>
-        </is>
-      </c>
-      <c r="BD15" t="inlineStr">
-        <is>
-          <t>1 Month.</t>
-        </is>
-      </c>
-      <c r="BE15" t="inlineStr">
-        <is>
-          <t>Notice of Termination must be in Writing. For a construction site worker, Notice is Given at the End of a Calendar Week. For a uta worker, Notice is Given at the End of A Payment Period.</t>
-        </is>
-      </c>
-      <c r="BF15" t="inlineStr">
-        <is>
-          <t>Indefinite contract: 2 months. Fixed term contract&gt; 6 months and &lt;1 year: 2 weeks for construction site workers, 1 months for uta workers. Fixed term 1 to 2 years: 1 month. Fixed term ≥ 2 years: 2 months. Fixed term ≤ 6 months: no probation period. Contract for the duration of a project: 1 month.</t>
-        </is>
-      </c>
-      <c r="BG15" t="inlineStr">
-        <is>
-          <t>A Probation Period is only valid if it is included in the written employment agreement.</t>
-        </is>
-      </c>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
       <c r="BH15" t="inlineStr"/>
       <c r="BI15" t="inlineStr"/>
       <c r="BJ15" t="inlineStr"/>
@@ -2675,23 +2743,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao-huisartsenzorg-2022-2023-incl-Handleiding.avv.json</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>721</v>
       </c>
       <c r="C16" t="n">
-        <v>10020</v>
+        <v>721007</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Overtime</t>
+          <t>Wage</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2699,11 +2767,19 @@
           <t>31/12/2023</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>08/08/2022</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2711,11 +2787,23 @@
           <t>no</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Trainee scale</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>01/05/2023</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -2740,8 +2828,16 @@
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Salary tables are listed in Appendix 14. Job classification is based on the FWHZ (Functiewaardering Huisartsenzorg) system. Hourly wage is 1/165th of the basic salary based on a 38-hour work week. Basic salary is the gross monthly salary according to the FWHZ table. An annual periodic increase is granted based on performance until the scale maximum is reached. Holiday allowance is 8%. The end-of-year bonus is 7.5% in 2022 and 8.33% from 2023. Triage nurses with a recognized diploma receive an extra salary step. For the trainee scale, if the legal minimum (youth) wage is higher, it must be paid.</t>
+        </is>
+      </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
@@ -2760,59 +2856,35 @@
       <c r="BE16" t="inlineStr"/>
       <c r="BF16" t="inlineStr"/>
       <c r="BG16" t="inlineStr"/>
-      <c r="BH16" t="inlineStr">
-        <is>
-          <t>Overtime is defined as working more hours in a day than scheduled. For construction site workers, each overtime hour is paid at the agreed Hourly rate plus a supplement: 25% for the First Three Hours, 50% for Subsequent Hours Between Jonday 21:00, and 100% for Hours Between Saturday and Monday. The worker can Choose Compensation in Free Time Instead of Money. For Uta Workers (up to function level 3), if the employer does not specific compensation, they are entitled to at least or free time or one hour or salary per overtime hour.</t>
-        </is>
-      </c>
-      <c r="BI16" t="inlineStr">
-        <is>
-          <t>For a construction site worker, the Combined Duration of Working Time, Prescribed Breaks, and Actual Travel Time May Not Exceed 12 Hours per day. This is extended to a maximum of 13 hours per day when overtime is worked. The Normal Workday is a maximum of 9 Hours accordance to the roster, but can be extended to 10 hours under the 'framework control'.</t>
-        </is>
-      </c>
-      <c r="BJ16" t="inlineStr">
-        <is>
-          <t>The Apprentice Worker (student employee) Works at Least 32 Hours per week.</t>
-        </is>
-      </c>
-      <c r="BK16" t="inlineStr">
-        <is>
-          <t>A Construction site worker in a two-shift System Receives A 10% Allowance, and in a three-shift system, A 15% Allowance. For 'Shifted Hours' in Infrastructure Projects, Allowances Range from 30% to 100% Depending on the Day and Time. In Industrial Construction, Hours between 19:00 and 06:00 Receive A 25% Allowance.</t>
-        </is>
-      </c>
-      <c r="BL16" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="BM16" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
       <c r="BN16" t="inlineStr"/>
       <c r="BO16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao-huisartsenzorg-2022-2023-incl-Handleiding.avv.json</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>721</v>
       </c>
       <c r="C17" t="n">
-        <v>10020</v>
+        <v>721007</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>Pension</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2820,11 +2892,19 @@
           <t>31/12/2023</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>08/08/2022</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2864,9 +2944,17 @@
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>The employer's collective pension scheme (PFZW) applies to the employee. The pension-qualifying salary is in accordance with the PFZW pension regulations. The pension premium is paid 50% by the employer and 50% by the employee.</t>
+        </is>
+      </c>
       <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>The indefinite-term employment contract automatically ends on the day the employee reaches the AOW (state pension) eligible age.</t>
+        </is>
+      </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
@@ -2887,33 +2975,29 @@
       <c r="BK17" t="inlineStr"/>
       <c r="BL17" t="inlineStr"/>
       <c r="BM17" t="inlineStr"/>
-      <c r="BN17" t="inlineStr">
-        <is>
-          <t>Employers are obligated to provide function-relate training, covering all costs and consulting the training time as working hours. The CAO Promotes Apprenticeships (BBL), Especary for Workers Up to 22 Years Old, With Required Mentoring by A 'Teacher'. A One-time diploma bonus or € 2,500 is available for obtining a relevant bbl diploma 1 Sep 2021 and 31 Dec 2023. Mentors ('teachers') Receive a Weekly Allowance (E.G., € 75.13 AS or 1 July 2023). If requested by the employer, first aid/BHV Training Costs are covered, and a bonus (€ 164.04 axis or 1 July 2023) is Paid for Courses Tasks Outside of Working Hours. Employees Are Expected to Participate in a Sustainable Employability Analysis (DIA) Every Four Years, With Resulting Actions Funded from Their Individual Budget.</t>
-        </is>
-      </c>
+      <c r="BN17" t="inlineStr"/>
       <c r="BO17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cao Bouw en Infra - versie 23 oktober 2023.json</t>
+          <t>Cao-huisartsenzorg-2022-2023-incl-Handleiding.avv.json</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>721</v>
       </c>
       <c r="C18" t="n">
-        <v>10020</v>
+        <v>721007</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Home office</t>
+          <t>Leave</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2921,11 +3005,19 @@
           <t>31/12/2023</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>08/08/2022</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2970,12 +3062,32 @@
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>The pregnant employee is entitled to statutory pregnancy and maternity leave. The main points of the Birth, Pregnancy, and Maternity Leave Regulation are summarized in appendix 12.</t>
+        </is>
+      </c>
       <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>The details of the Birth, Pregnancy, and Maternity Leave Regulation are summarized in a schema in appendix 12 of the CAO.</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>For a 38-hour work week, an employee is entitled to 152 hours of statutory vacation and 38 hours of non-statutory vacation per year.</t>
+        </is>
+      </c>
+      <c r="AZ18" t="inlineStr">
+        <is>
+          <t>hours per year</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>Statutory vacation hours expire 6 months after the calendar year in which they were accrued; non-statutory vacation hours expire 5 years after the calendar year in which they were accrued. A transitional arrangement for extra age-based vacation hours exists for employees who were entitled to them on December 31, 2015; this right is frozen and no new employees can join this scheme. Vacation hours are determined pro-rata for part-time employees or for those starting or leaving during the year. The employer can designate up to 3 collective vacation days per year. The employee is entitled to take a maximum of 3 consecutive weeks of vacation. If an employee falls ill during vacation, these days are not deducted from the vacation balance, provided rules are followed. Annually, an employee can buy or sell up to 38 non-statutory vacation hours pro-rata to their employment contract. The value for buying/selling is based on the basic salary plus any personal allowance, holiday allowance, and year-end bonus.</t>
+        </is>
+      </c>
       <c r="BB18" t="inlineStr"/>
       <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
@@ -2991,6 +3103,6191 @@
       <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="inlineStr"/>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Cao-huisartsenzorg-2022-2023-incl-Handleiding.avv.json</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>721</v>
+      </c>
+      <c r="C19" t="n">
+        <v>721007</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr"/>
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="inlineStr"/>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>For an indefinite-term contract: 4 months. For a fixed-term contract: 2 months.</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>Termination must be in writing and occurs at the end of a calendar month. Termination due to incapacity for work can only occur after the incapacity has lasted for 2 uninterrupted years (periods of interruption less than 4 weeks are not counted). For fixed-term contracts, the employer must inform the employee in writing at least one month before the end of the contract whether it will be continued and under what conditions. Failure to do so results in a penalty.</t>
+        </is>
+      </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t>For an indefinite-term contract: 2 months. For a fixed-term contract: 1 month.</t>
+        </is>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>Termination must be in writing and occurs at the end of a calendar month. If a different notice period is agreed upon in the individual employment contract, the employer's notice period must always be twice as long as the employee's, with a maximum of 6 months for the employee.</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>For a fixed-term contract of 6 months or less: no probation period allowed. For a fixed-term contract longer than 6 months but shorter than 2 years: a maximum of 1 month. For a fixed-term contract of 2 years or longer: a maximum of 2 months. For an indefinite-term contract: a maximum of 2 months.</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>The probation period must be agreed upon in writing and is equal for both parties.</t>
+        </is>
+      </c>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="inlineStr"/>
+      <c r="BN19" t="inlineStr"/>
+      <c r="BO19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Cao-huisartsenzorg-2022-2023-incl-Handleiding.avv.json</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>721</v>
+      </c>
+      <c r="C20" t="n">
+        <v>721007</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>For each hour of overtime, the employee receives a supplement equal to their gross hourly wage, on top of the regular hourly wage. For overtime shorter than half an hour per instance, no compensation is given. Overtime of more than half an hour is rounded up to a full hour. Overtime longer than an hour is rounded up to the nearest half or full hour.</t>
+        </is>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>Overtime is considered work that exceeds 494 hours in a period of 3 consecutive calendar months. Employees with a monthly salary higher than the maximum of scale 7 are excluded from overtime compensation.</t>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>Irregularity allowance (for day-shift workers): 30% for work on weekdays between 20:00 and 24:00; 100% for work on weekdays between 24:00 and 07:00; 100% for work on Saturdays, Sundays, and public holidays. ANW-allowance (for regular evening/night/weekend workers): 30% for hours between 18:00 and 24:00; 50% for hours between 24:00 and 08:00; 50% for weekend hours (Friday 24:00 to Monday 08:00), except for Sunday 00:00-08:00 which is 60%; 60% on public holidays; 60% from 18:00 on Dec 24/31 and specific Fridays before holidays. On-call duty compensation: 2 hours of time-off for each 24-hour period on weekdays; 4 hours for each 24-hour period on weekends/holidays.</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>Overtime must be longer than half an hour per instance to be compensated.</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t>Employees with a monthly salary higher than the maximum of salary scale 7 are excluded from overtime compensation.</t>
+        </is>
+      </c>
+      <c r="BN20" t="inlineStr"/>
+      <c r="BO20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cao-huisartsenzorg-2022-2023-incl-Handleiding.avv.json</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>721</v>
+      </c>
+      <c r="C21" t="n">
+        <v>721007</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
+      <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="inlineStr"/>
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="inlineStr"/>
+      <c r="BM21" t="inlineStr"/>
+      <c r="BN21" t="inlineStr">
+        <is>
+          <t>Mandatory training is paid for by the employer, including travel and accommodation costs. Time spent on this training is considered working time. The minimum is 20 hours of accredited training per year for employees working more than 8 hours/week, and 10 hours for those working 8 hours/week or less. Career-oriented training is voluntary and done in the employee's own time, but the employer covers the costs. Unpaid study leave may be granted. The employer reimburses (re)registration costs in recognized registers up to a maximum of €125 net every 5 years. A repayment scheme applies for study costs exceeding €1,000 if the employee resigns within 24 months of completion. Interns receive a monthly allowance of €150 (for &gt;=15 hours/week) or €100 (for &lt;15 hours/week).</t>
+        </is>
+      </c>
+      <c r="BO21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cao-huisartsenzorg-2022-2023-incl-Handleiding.avv.json</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>721</v>
+      </c>
+      <c r="C22" t="n">
+        <v>721007</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Homeoffice</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>08/08/2022</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="inlineStr"/>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="inlineStr"/>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="inlineStr"/>
+      <c r="BL22" t="inlineStr"/>
+      <c r="BM22" t="inlineStr"/>
+      <c r="BN22" t="inlineStr"/>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>An employee who works from home non-incidentally is entitled to a net allowance of €2.00 per home-work day. Non-incidental is defined as: working at least 50% from home for at least one month (min. 2 days/week) OR structurally working at least 20% from home (min. 1 day/week). On a home-work day, the employee is not entitled to a commuting allowance. For employees who structurally work from home, the employer must provide an ergonomic workspace (desk, chair, lighting) that complies with the Working Conditions Act. The employer remains the owner of these provisions, and a user agreement is signed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CAO_tekst_2015__2016_aanmelding_tst_dispensatie.json</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>526</v>
+      </c>
+      <c r="C23" t="n">
+        <v>526006</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>07/04/2016</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>01/11/2015</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>+ €5.75</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>1.55%</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>The actual gross weekly wages are listed in appendix II, which is not included in the provided text. The wage is defined as a gross weekly wage. The hourly wage is the gross weekly wage divided by the normal number of working hours per week. The increase on 01/11/2015 is a fixed amount, not a percentage. Workers who are company emergency response officers (BHV) receive a gross allowance of €3.90/week from 01/01/2016, and €3.93/week from 01/07/2016. Workers in function groups up to D who also act as practical trainers receive a gross allowance of €9.05/week, €9.19/week from 01/01/2016, and €9.26/week from 01/07/2016.</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>22 years and older</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="inlineStr"/>
+      <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr"/>
+      <c r="BM23" t="inlineStr"/>
+      <c r="BN23" t="inlineStr"/>
+      <c r="BO23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CAO_tekst_2015__2016_aanmelding_tst_dispensatie.json</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>526</v>
+      </c>
+      <c r="C24" t="n">
+        <v>526006</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>07/04/2016</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>01/11/2015</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>+ €5.75</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>1.55%</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>The actual gross weekly wages are listed in appendix II, which is not included in the provided text. The wage is defined as a gross weekly wage. The hourly wage is the gross weekly wage divided by the normal number of working hours per week. The increase on 01/11/2015 is a fixed amount, not a percentage. Workers who are company emergency response officers (BHV) receive a gross allowance of €3.90/week from 01/01/2016, and €3.93/week from 01/07/2016. Workers in function groups up to D who also act as practical trainers receive a gross allowance of €9.05/week, €9.19/week from 01/01/2016, and €9.26/week from 01/07/2016.</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>22 years and older</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="inlineStr"/>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="inlineStr"/>
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="inlineStr"/>
+      <c r="BL24" t="inlineStr"/>
+      <c r="BM24" t="inlineStr"/>
+      <c r="BN24" t="inlineStr"/>
+      <c r="BO24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CAO_tekst_2015__2016_aanmelding_tst_dispensatie.json</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>526</v>
+      </c>
+      <c r="C25" t="n">
+        <v>526006</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>07/04/2016</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>01/11/2015</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>+ €5.75</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>1.55%</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>The actual gross weekly wages are listed in appendix II, which is not included in the provided text. The wage is defined as a gross weekly wage. The hourly wage is the gross weekly wage divided by the normal number of working hours per week. The increase on 01/11/2015 is a fixed amount, not a percentage. Workers who are company emergency response officers (BHV) receive a gross allowance of €3.90/week from 01/01/2016, and €3.93/week from 01/07/2016. Workers in function groups up to D who also act as practical trainers receive a gross allowance of €9.05/week, €9.19/week from 01/01/2016, and €9.26/week from 01/07/2016. This function group is for employees following Basic Vocational Training or Vocational Training via the Vocational Training Pathway (BBL).</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>22 years and older</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="inlineStr"/>
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="inlineStr"/>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="inlineStr"/>
+      <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="inlineStr"/>
+      <c r="BO25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CAO_tekst_2015__2016_aanmelding_tst_dispensatie.json</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>526</v>
+      </c>
+      <c r="C26" t="n">
+        <v>526006</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>07/04/2016</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>01/11/2015</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>+ €5.75</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>1.55%</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>The actual gross weekly wages are listed in appendix II, which is not included in the provided text. The wage is defined as a gross weekly wage. The hourly wage is the gross weekly wage divided by the normal number of working hours per week. The increase on 01/11/2015 is a fixed amount, not a percentage. Workers who are company emergency response officers (BHV) receive a gross allowance of €3.90/week from 01/01/2016, and €3.93/week from 01/07/2016. Workers in function groups up to D who also act as practical trainers receive a gross allowance of €9.05/week, €9.19/week from 01/01/2016, and €9.26/week from 01/07/2016.</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>22 years and older</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
+      <c r="BH26" t="inlineStr"/>
+      <c r="BI26" t="inlineStr"/>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" t="inlineStr"/>
+      <c r="BL26" t="inlineStr"/>
+      <c r="BM26" t="inlineStr"/>
+      <c r="BN26" t="inlineStr"/>
+      <c r="BO26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CAO_tekst_2015__2016_aanmelding_tst_dispensatie.json</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>526</v>
+      </c>
+      <c r="C27" t="n">
+        <v>526006</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>07/04/2016</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>01/11/2015</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>+ €5.75</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>1.55%</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>The actual gross weekly wages are listed in appendix II, which is not included in the provided text. The wage is defined as a gross weekly wage. The hourly wage is the gross weekly wage divided by the normal number of working hours per week. The increase on 01/11/2015 is a fixed amount, not a percentage. Workers who are company emergency response officers (BHV) receive a gross allowance of €3.90/week from 01/01/2016, and €3.93/week from 01/07/2016. Workers in function groups up to D who also act as practical trainers receive a gross allowance of €9.05/week, €9.19/week from 01/01/2016, and €9.26/week from 01/07/2016.</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>22 years and older</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="inlineStr"/>
+      <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="inlineStr"/>
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="inlineStr"/>
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="inlineStr"/>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="inlineStr"/>
+      <c r="BM27" t="inlineStr"/>
+      <c r="BN27" t="inlineStr"/>
+      <c r="BO27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CAO_tekst_2015__2016_aanmelding_tst_dispensatie.json</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>526</v>
+      </c>
+      <c r="C28" t="n">
+        <v>526006</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>07/04/2016</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>01/11/2015</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>+ €5.75</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>1.55%</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>01/07/2016</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>The actual gross weekly wages are listed in appendix II, which is not included in the provided text. The wage is defined as a gross weekly wage. The hourly wage is the gross weekly wage divided by the normal number of working hours per week. The increase on 01/11/2015 is a fixed amount, not a percentage. Workers who are company emergency response officers (BHV) receive a gross allowance of €3.90/week from 01/01/2016, and €3.93/week from 01/07/2016. Workers in function groups up to D who also act as practical trainers receive a gross allowance of €9.05/week, €9.19/week from 01/01/2016, and €9.26/week from 01/07/2016.</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>22 years and older</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="inlineStr"/>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="inlineStr"/>
+      <c r="BJ28" t="inlineStr"/>
+      <c r="BK28" t="inlineStr"/>
+      <c r="BL28" t="inlineStr"/>
+      <c r="BM28" t="inlineStr"/>
+      <c r="BN28" t="inlineStr"/>
+      <c r="BO28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CAO_tekst_2015__2016_aanmelding_tst_dispensatie.json</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>526</v>
+      </c>
+      <c r="C29" t="n">
+        <v>526006</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Pension</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>07/04/2016</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>The premium for the supplementary disability insurance is borne by employees, with employers contributing a fixed percentage of the gross wage bill. As of January 1, 1997, the premium was set to zero due to a surplus in the Disability Pension Fund. The obligation to pay premiums ends when the employee reaches the age of 65.</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>Employees aged 55 or older who accept a lighter function with lower pay are entitled to partial compensation for the loss of (early) pension accrual. The compensation is a maximum of 8% of the annual employer and employee premium and is paid into the Pension Fund. For the WAO-plus extra disability benefit, the premium in 2010 was 0.32% of income, with 0.16% paid by the employee and 0.16% by the employer; this premium was set to zero as of January 1, 2008. Employees entitled to an IVA benefit (income provision for fully and permanently disabled persons) since January 1, 2006, receive a disability pension of 5% as a supplement to the IVA benefit. The WAO-min benefit supplements the WAO/AAW benefit up to 70% of the daily wage.</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>The employment contract ends when the employee reaches the AOW-eligible age.</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>The obligation to pay premiums for the supplementary disability insurance ends when the employee reaches the age of 65.</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>An employee of 55 years or older who accepts a lighter function is entitled to partial pension compensation. The obligation for supplementary disability premium ends at age 65.</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="inlineStr"/>
+      <c r="BH29" t="inlineStr"/>
+      <c r="BI29" t="inlineStr"/>
+      <c r="BJ29" t="inlineStr"/>
+      <c r="BK29" t="inlineStr"/>
+      <c r="BL29" t="inlineStr"/>
+      <c r="BM29" t="inlineStr"/>
+      <c r="BN29" t="inlineStr"/>
+      <c r="BO29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CAO_tekst_2015__2016_aanmelding_tst_dispensatie.json</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>526</v>
+      </c>
+      <c r="C30" t="n">
+        <v>526006</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>07/04/2016</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>The duration of leave for pregnancy or childbirth is not specified.</t>
+        </is>
+      </c>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>An employee accrues vacation entitlement during the time they are not working due to pregnancy or childbirth leave.</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>The base entitlement is 24 vacation days per full vacation year. Employees receive extra vacation days based on age: those born in 1960 or earlier get 6 extra days from age 55; born in 1961 get 5; born in 1962 get 4; born in 1963 get 3; born in 1964 get 2; born in 1965 get 1. From age 60, employees get 6 extra days, which increases by 1 day annually to a maximum of 10 extra days at age 64 and older. Employees also receive 2 extra days for 25 years of service and 3 extra days for 40 years of service with the same employer.</t>
+        </is>
+      </c>
+      <c r="AZ30" t="inlineStr">
+        <is>
+          <t>days per vacation year</t>
+        </is>
+      </c>
+      <c r="BA30" t="inlineStr">
+        <is>
+          <t>The vacation year runs from January 1 to December 31. The holiday allowance is 8% of the income (excluding the allowance itself) from the preceding 12 months, paid out by June 30. Part-time employees accrue vacation entitlement in proportion to their working hours. Vacation days are accrued during periods of sick leave. If an employee becomes sick during their vacation, those days are not counted as vacation days, provided the illness is reported in a timely manner.</t>
+        </is>
+      </c>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="inlineStr"/>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="inlineStr"/>
+      <c r="BM30" t="inlineStr"/>
+      <c r="BN30" t="inlineStr"/>
+      <c r="BO30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CAO_tekst_2015__2016_aanmelding_tst_dispensatie.json</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>526</v>
+      </c>
+      <c r="C31" t="n">
+        <v>526006</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>07/04/2016</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>The statutory regulation of article 7:672 of the Dutch Civil Code applies. However, for employees aged 45 and older, the employer must observe a minimum notice period of two months.</t>
+        </is>
+      </c>
+      <c r="BC31" t="inlineStr">
+        <is>
+          <t>The employer must inform the employee of a dismissal permit application to the UWV no later than the first working day after the submission. The employment contract ends automatically when the employee reaches the AOW-eligible age without any notice being required. For the application of the chain rule (art. 7:668a BW), preceding temporary agency contracts are taken into account.</t>
+        </is>
+      </c>
+      <c r="BD31" t="inlineStr">
+        <is>
+          <t>The statutory regulation of article 7:672 of the Dutch Civil Code regarding the notice period is applicable.</t>
+        </is>
+      </c>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="inlineStr">
+        <is>
+          <t>A probation period is only valid if it has been agreed upon in writing.</t>
+        </is>
+      </c>
+      <c r="BG31" t="inlineStr">
+        <is>
+          <t>The employment contract is considered to be for an indefinite period, unless otherwise agreed in writing.</t>
+        </is>
+      </c>
+      <c r="BH31" t="inlineStr"/>
+      <c r="BI31" t="inlineStr"/>
+      <c r="BJ31" t="inlineStr"/>
+      <c r="BK31" t="inlineStr"/>
+      <c r="BL31" t="inlineStr"/>
+      <c r="BM31" t="inlineStr"/>
+      <c r="BN31" t="inlineStr"/>
+      <c r="BO31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CAO_tekst_2015__2016_aanmelding_tst_dispensatie.json</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>526</v>
+      </c>
+      <c r="C32" t="n">
+        <v>526006</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>07/04/2016</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="inlineStr"/>
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr"/>
+      <c r="BB32" t="inlineStr"/>
+      <c r="BC32" t="inlineStr"/>
+      <c r="BD32" t="inlineStr"/>
+      <c r="BE32" t="inlineStr"/>
+      <c r="BF32" t="inlineStr"/>
+      <c r="BG32" t="inlineStr"/>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>The surcharge for overtime is 25%. For overtime on a Saturday or between 22:00 and 07:00, the surcharge is 50%. For work on a Sunday, the surcharge is 100%, and on a public holiday, it is 200%. If overtime exceeds 31 hours per quarter (or 44 hours for employees working partially or wholly off-site), the surcharge for the excess hours becomes 40%. If these excess hours are on a Saturday or between 22:00 and 07:00, the surcharge is 65%. For drivers and co-drivers, the first three overtime hours per week are compensated on a 1-to-1 basis (paid time off), with subsequent hours receiving the standard overtime surcharges.</t>
+        </is>
+      </c>
+      <c r="BI32" t="inlineStr">
+        <is>
+          <t>The normal working hours are 7.5 hours per day and 37.5 hours per week. In a flexible workweek arrangement, hours can be up to 45 per week, with a maximum of 2 days of up to 10 hours and other days up to 9 hours. Employees aged 16-17 may work a maximum of 10 overtime hours per four weeks, with a total maximum of 160 worked hours per four weeks.</t>
+        </is>
+      </c>
+      <c r="BJ32" t="inlineStr"/>
+      <c r="BK32" t="inlineStr">
+        <is>
+          <t>For two or three-shift work between 7:00 and 22:00, a 15% wage surcharge applies. For shifts between 22:00 and 7:00, the surcharge is 30%. For non-alternating staggered shifts, a 15% surcharge applies only to hours worked between 22:00 and 7:00. For exceptional night work between 22:00 and 7:00, a 50% surcharge applies. The employer can, after consulting the employee, replace the surcharge with a proportional reduction in working hours. Employees aged 55 and older cannot be obliged to work in shifts or night shifts.</t>
+        </is>
+      </c>
+      <c r="BL32" t="inlineStr">
+        <is>
+          <t>Overtime is defined as work performed beyond the normally applicable weekly working hours in the company.</t>
+        </is>
+      </c>
+      <c r="BM32" t="inlineStr">
+        <is>
+          <t>Employees aged 16 and 17 are limited to 10 hours of overtime per four weeks, with a total of 160 hours worked in that period. Employees aged 55 and older cannot be obliged to perform overtime.</t>
+        </is>
+      </c>
+      <c r="BN32" t="inlineStr"/>
+      <c r="BO32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CAO_tekst_2015__2016_aanmelding_tst_dispensatie.json</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>526</v>
+      </c>
+      <c r="C33" t="n">
+        <v>526006</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>07/04/2016</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr"/>
+      <c r="AX33" t="inlineStr"/>
+      <c r="AY33" t="inlineStr"/>
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr"/>
+      <c r="BB33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="inlineStr"/>
+      <c r="BE33" t="inlineStr"/>
+      <c r="BF33" t="inlineStr"/>
+      <c r="BG33" t="inlineStr"/>
+      <c r="BH33" t="inlineStr"/>
+      <c r="BI33" t="inlineStr"/>
+      <c r="BJ33" t="inlineStr"/>
+      <c r="BK33" t="inlineStr"/>
+      <c r="BL33" t="inlineStr"/>
+      <c r="BM33" t="inlineStr"/>
+      <c r="BN33" t="inlineStr">
+        <is>
+          <t>Employers must encourage employees under 27 to pursue vocational training; school days for apprentices are paid. Employees receive an allowance for training costs from the Expertisecentrum Meubel (ECM): €80 (level 1), €300 (level 2), €420 (level 3). Leave for exams is compensated up to 4 days. If technology changes a job, the employer must provide retraining, with costs potentially reimbursed by ECM. For employer-mandated training during work hours, employees receive paid leave; if outside work hours, they receive study leave equal to 50% of the course time. For employee-initiated training deemed beneficial to the company, study leave is 25% of the course time (max 20 hours/year). Employees have the right to an Experience Certificate (EVC) procedure. Employers can get reimbursed for the training costs of practice trainers. New production workers must attend a 'safe and healthy working' course within 3 months of hiring.</t>
+        </is>
+      </c>
+      <c r="BO33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CAO_tekst_2015__2016_aanmelding_tst_dispensatie.json</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>526</v>
+      </c>
+      <c r="C34" t="n">
+        <v>526006</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Homeoffice</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>07/04/2016</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="inlineStr"/>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr"/>
+      <c r="BB34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr"/>
+      <c r="BF34" t="inlineStr"/>
+      <c r="BG34" t="inlineStr"/>
+      <c r="BH34" t="inlineStr"/>
+      <c r="BI34" t="inlineStr"/>
+      <c r="BJ34" t="inlineStr"/>
+      <c r="BK34" t="inlineStr"/>
+      <c r="BL34" t="inlineStr"/>
+      <c r="BM34" t="inlineStr"/>
+      <c r="BN34" t="inlineStr"/>
+      <c r="BO34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>625</v>
+      </c>
+      <c r="C35" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Function group 1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 1-2, there are no initial/training years ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="inlineStr"/>
+      <c r="AY35" t="inlineStr"/>
+      <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr"/>
+      <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="inlineStr"/>
+      <c r="BE35" t="inlineStr"/>
+      <c r="BF35" t="inlineStr"/>
+      <c r="BG35" t="inlineStr"/>
+      <c r="BH35" t="inlineStr"/>
+      <c r="BI35" t="inlineStr"/>
+      <c r="BJ35" t="inlineStr"/>
+      <c r="BK35" t="inlineStr"/>
+      <c r="BL35" t="inlineStr"/>
+      <c r="BM35" t="inlineStr"/>
+      <c r="BN35" t="inlineStr"/>
+      <c r="BO35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>625</v>
+      </c>
+      <c r="C36" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Function group 2</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 1-2, there are no initial/training years ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="inlineStr"/>
+      <c r="AY36" t="inlineStr"/>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="inlineStr"/>
+      <c r="BE36" t="inlineStr"/>
+      <c r="BF36" t="inlineStr"/>
+      <c r="BG36" t="inlineStr"/>
+      <c r="BH36" t="inlineStr"/>
+      <c r="BI36" t="inlineStr"/>
+      <c r="BJ36" t="inlineStr"/>
+      <c r="BK36" t="inlineStr"/>
+      <c r="BL36" t="inlineStr"/>
+      <c r="BM36" t="inlineStr"/>
+      <c r="BN36" t="inlineStr"/>
+      <c r="BO36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>625</v>
+      </c>
+      <c r="C37" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Function group 3</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 3-8, there is a maximum of 1 initial/training year ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr"/>
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="inlineStr"/>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr"/>
+      <c r="BE37" t="inlineStr"/>
+      <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
+      <c r="BH37" t="inlineStr"/>
+      <c r="BI37" t="inlineStr"/>
+      <c r="BJ37" t="inlineStr"/>
+      <c r="BK37" t="inlineStr"/>
+      <c r="BL37" t="inlineStr"/>
+      <c r="BM37" t="inlineStr"/>
+      <c r="BN37" t="inlineStr"/>
+      <c r="BO37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>625</v>
+      </c>
+      <c r="C38" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Function group 4</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 3-8, there is a maximum of 1 initial/training year ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr"/>
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="inlineStr"/>
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="inlineStr"/>
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
+      <c r="BH38" t="inlineStr"/>
+      <c r="BI38" t="inlineStr"/>
+      <c r="BJ38" t="inlineStr"/>
+      <c r="BK38" t="inlineStr"/>
+      <c r="BL38" t="inlineStr"/>
+      <c r="BM38" t="inlineStr"/>
+      <c r="BN38" t="inlineStr"/>
+      <c r="BO38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>625</v>
+      </c>
+      <c r="C39" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Function group 5</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 3-8, there is a maximum of 1 initial/training year ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr"/>
+      <c r="AX39" t="inlineStr"/>
+      <c r="AY39" t="inlineStr"/>
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="inlineStr"/>
+      <c r="BE39" t="inlineStr"/>
+      <c r="BF39" t="inlineStr"/>
+      <c r="BG39" t="inlineStr"/>
+      <c r="BH39" t="inlineStr"/>
+      <c r="BI39" t="inlineStr"/>
+      <c r="BJ39" t="inlineStr"/>
+      <c r="BK39" t="inlineStr"/>
+      <c r="BL39" t="inlineStr"/>
+      <c r="BM39" t="inlineStr"/>
+      <c r="BN39" t="inlineStr"/>
+      <c r="BO39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>625</v>
+      </c>
+      <c r="C40" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Function group 6</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 3-8, there is a maximum of 1 initial/training year ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr"/>
+      <c r="AV40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr"/>
+      <c r="AY40" t="inlineStr"/>
+      <c r="AZ40" t="inlineStr"/>
+      <c r="BA40" t="inlineStr"/>
+      <c r="BB40" t="inlineStr"/>
+      <c r="BC40" t="inlineStr"/>
+      <c r="BD40" t="inlineStr"/>
+      <c r="BE40" t="inlineStr"/>
+      <c r="BF40" t="inlineStr"/>
+      <c r="BG40" t="inlineStr"/>
+      <c r="BH40" t="inlineStr"/>
+      <c r="BI40" t="inlineStr"/>
+      <c r="BJ40" t="inlineStr"/>
+      <c r="BK40" t="inlineStr"/>
+      <c r="BL40" t="inlineStr"/>
+      <c r="BM40" t="inlineStr"/>
+      <c r="BN40" t="inlineStr"/>
+      <c r="BO40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>625</v>
+      </c>
+      <c r="C41" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Function group 7</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 3-8, there is a maximum of 1 initial/training year ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr"/>
+      <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr"/>
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="inlineStr"/>
+      <c r="AZ41" t="inlineStr"/>
+      <c r="BA41" t="inlineStr"/>
+      <c r="BB41" t="inlineStr"/>
+      <c r="BC41" t="inlineStr"/>
+      <c r="BD41" t="inlineStr"/>
+      <c r="BE41" t="inlineStr"/>
+      <c r="BF41" t="inlineStr"/>
+      <c r="BG41" t="inlineStr"/>
+      <c r="BH41" t="inlineStr"/>
+      <c r="BI41" t="inlineStr"/>
+      <c r="BJ41" t="inlineStr"/>
+      <c r="BK41" t="inlineStr"/>
+      <c r="BL41" t="inlineStr"/>
+      <c r="BM41" t="inlineStr"/>
+      <c r="BN41" t="inlineStr"/>
+      <c r="BO41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>625</v>
+      </c>
+      <c r="C42" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Function group 8</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 3-8, there is a maximum of 1 initial/training year ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AU42" t="inlineStr"/>
+      <c r="AV42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr"/>
+      <c r="AX42" t="inlineStr"/>
+      <c r="AY42" t="inlineStr"/>
+      <c r="AZ42" t="inlineStr"/>
+      <c r="BA42" t="inlineStr"/>
+      <c r="BB42" t="inlineStr"/>
+      <c r="BC42" t="inlineStr"/>
+      <c r="BD42" t="inlineStr"/>
+      <c r="BE42" t="inlineStr"/>
+      <c r="BF42" t="inlineStr"/>
+      <c r="BG42" t="inlineStr"/>
+      <c r="BH42" t="inlineStr"/>
+      <c r="BI42" t="inlineStr"/>
+      <c r="BJ42" t="inlineStr"/>
+      <c r="BK42" t="inlineStr"/>
+      <c r="BL42" t="inlineStr"/>
+      <c r="BM42" t="inlineStr"/>
+      <c r="BN42" t="inlineStr"/>
+      <c r="BO42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>625</v>
+      </c>
+      <c r="C43" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Function group 9</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 9-14, there is a maximum of 2 initial/training years ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="inlineStr"/>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AU43" t="inlineStr"/>
+      <c r="AV43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr"/>
+      <c r="AX43" t="inlineStr"/>
+      <c r="AY43" t="inlineStr"/>
+      <c r="AZ43" t="inlineStr"/>
+      <c r="BA43" t="inlineStr"/>
+      <c r="BB43" t="inlineStr"/>
+      <c r="BC43" t="inlineStr"/>
+      <c r="BD43" t="inlineStr"/>
+      <c r="BE43" t="inlineStr"/>
+      <c r="BF43" t="inlineStr"/>
+      <c r="BG43" t="inlineStr"/>
+      <c r="BH43" t="inlineStr"/>
+      <c r="BI43" t="inlineStr"/>
+      <c r="BJ43" t="inlineStr"/>
+      <c r="BK43" t="inlineStr"/>
+      <c r="BL43" t="inlineStr"/>
+      <c r="BM43" t="inlineStr"/>
+      <c r="BN43" t="inlineStr"/>
+      <c r="BO43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>625</v>
+      </c>
+      <c r="C44" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Function group 10</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 9-14, there is a maximum of 2 initial/training years ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="inlineStr"/>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AU44" t="inlineStr"/>
+      <c r="AV44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr"/>
+      <c r="AX44" t="inlineStr"/>
+      <c r="AY44" t="inlineStr"/>
+      <c r="AZ44" t="inlineStr"/>
+      <c r="BA44" t="inlineStr"/>
+      <c r="BB44" t="inlineStr"/>
+      <c r="BC44" t="inlineStr"/>
+      <c r="BD44" t="inlineStr"/>
+      <c r="BE44" t="inlineStr"/>
+      <c r="BF44" t="inlineStr"/>
+      <c r="BG44" t="inlineStr"/>
+      <c r="BH44" t="inlineStr"/>
+      <c r="BI44" t="inlineStr"/>
+      <c r="BJ44" t="inlineStr"/>
+      <c r="BK44" t="inlineStr"/>
+      <c r="BL44" t="inlineStr"/>
+      <c r="BM44" t="inlineStr"/>
+      <c r="BN44" t="inlineStr"/>
+      <c r="BO44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>625</v>
+      </c>
+      <c r="C45" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Function group 11</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 9-14, there is a maximum of 2 initial/training years ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="inlineStr"/>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AU45" t="inlineStr"/>
+      <c r="AV45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr"/>
+      <c r="AX45" t="inlineStr"/>
+      <c r="AY45" t="inlineStr"/>
+      <c r="AZ45" t="inlineStr"/>
+      <c r="BA45" t="inlineStr"/>
+      <c r="BB45" t="inlineStr"/>
+      <c r="BC45" t="inlineStr"/>
+      <c r="BD45" t="inlineStr"/>
+      <c r="BE45" t="inlineStr"/>
+      <c r="BF45" t="inlineStr"/>
+      <c r="BG45" t="inlineStr"/>
+      <c r="BH45" t="inlineStr"/>
+      <c r="BI45" t="inlineStr"/>
+      <c r="BJ45" t="inlineStr"/>
+      <c r="BK45" t="inlineStr"/>
+      <c r="BL45" t="inlineStr"/>
+      <c r="BM45" t="inlineStr"/>
+      <c r="BN45" t="inlineStr"/>
+      <c r="BO45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>625</v>
+      </c>
+      <c r="C46" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Function group 12</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 9-14, there is a maximum of 2 initial/training years ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AU46" t="inlineStr"/>
+      <c r="AV46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr"/>
+      <c r="AX46" t="inlineStr"/>
+      <c r="AY46" t="inlineStr"/>
+      <c r="AZ46" t="inlineStr"/>
+      <c r="BA46" t="inlineStr"/>
+      <c r="BB46" t="inlineStr"/>
+      <c r="BC46" t="inlineStr"/>
+      <c r="BD46" t="inlineStr"/>
+      <c r="BE46" t="inlineStr"/>
+      <c r="BF46" t="inlineStr"/>
+      <c r="BG46" t="inlineStr"/>
+      <c r="BH46" t="inlineStr"/>
+      <c r="BI46" t="inlineStr"/>
+      <c r="BJ46" t="inlineStr"/>
+      <c r="BK46" t="inlineStr"/>
+      <c r="BL46" t="inlineStr"/>
+      <c r="BM46" t="inlineStr"/>
+      <c r="BN46" t="inlineStr"/>
+      <c r="BO46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>625</v>
+      </c>
+      <c r="C47" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Function group 13</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 9-14, there is a maximum of 2 initial/training years ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="inlineStr"/>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AU47" t="inlineStr"/>
+      <c r="AV47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr"/>
+      <c r="AX47" t="inlineStr"/>
+      <c r="AY47" t="inlineStr"/>
+      <c r="AZ47" t="inlineStr"/>
+      <c r="BA47" t="inlineStr"/>
+      <c r="BB47" t="inlineStr"/>
+      <c r="BC47" t="inlineStr"/>
+      <c r="BD47" t="inlineStr"/>
+      <c r="BE47" t="inlineStr"/>
+      <c r="BF47" t="inlineStr"/>
+      <c r="BG47" t="inlineStr"/>
+      <c r="BH47" t="inlineStr"/>
+      <c r="BI47" t="inlineStr"/>
+      <c r="BJ47" t="inlineStr"/>
+      <c r="BK47" t="inlineStr"/>
+      <c r="BL47" t="inlineStr"/>
+      <c r="BM47" t="inlineStr"/>
+      <c r="BN47" t="inlineStr"/>
+      <c r="BO47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>625</v>
+      </c>
+      <c r="C48" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Function group 14</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 9-14, there is a maximum of 2 initial/training years ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="inlineStr"/>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AU48" t="inlineStr"/>
+      <c r="AV48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr"/>
+      <c r="AX48" t="inlineStr"/>
+      <c r="AY48" t="inlineStr"/>
+      <c r="AZ48" t="inlineStr"/>
+      <c r="BA48" t="inlineStr"/>
+      <c r="BB48" t="inlineStr"/>
+      <c r="BC48" t="inlineStr"/>
+      <c r="BD48" t="inlineStr"/>
+      <c r="BE48" t="inlineStr"/>
+      <c r="BF48" t="inlineStr"/>
+      <c r="BG48" t="inlineStr"/>
+      <c r="BH48" t="inlineStr"/>
+      <c r="BI48" t="inlineStr"/>
+      <c r="BJ48" t="inlineStr"/>
+      <c r="BK48" t="inlineStr"/>
+      <c r="BL48" t="inlineStr"/>
+      <c r="BM48" t="inlineStr"/>
+      <c r="BN48" t="inlineStr"/>
+      <c r="BO48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>625</v>
+      </c>
+      <c r="C49" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Function group 15</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 15-18, there is a maximum of 3 initial/training years ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="inlineStr"/>
+      <c r="AS49" t="inlineStr"/>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AU49" t="inlineStr"/>
+      <c r="AV49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr"/>
+      <c r="AX49" t="inlineStr"/>
+      <c r="AY49" t="inlineStr"/>
+      <c r="AZ49" t="inlineStr"/>
+      <c r="BA49" t="inlineStr"/>
+      <c r="BB49" t="inlineStr"/>
+      <c r="BC49" t="inlineStr"/>
+      <c r="BD49" t="inlineStr"/>
+      <c r="BE49" t="inlineStr"/>
+      <c r="BF49" t="inlineStr"/>
+      <c r="BG49" t="inlineStr"/>
+      <c r="BH49" t="inlineStr"/>
+      <c r="BI49" t="inlineStr"/>
+      <c r="BJ49" t="inlineStr"/>
+      <c r="BK49" t="inlineStr"/>
+      <c r="BL49" t="inlineStr"/>
+      <c r="BM49" t="inlineStr"/>
+      <c r="BN49" t="inlineStr"/>
+      <c r="BO49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>625</v>
+      </c>
+      <c r="C50" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Function group 16</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 15-18, there is a maximum of 3 initial/training years ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="inlineStr"/>
+      <c r="AS50" t="inlineStr"/>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AU50" t="inlineStr"/>
+      <c r="AV50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr"/>
+      <c r="AX50" t="inlineStr"/>
+      <c r="AY50" t="inlineStr"/>
+      <c r="AZ50" t="inlineStr"/>
+      <c r="BA50" t="inlineStr"/>
+      <c r="BB50" t="inlineStr"/>
+      <c r="BC50" t="inlineStr"/>
+      <c r="BD50" t="inlineStr"/>
+      <c r="BE50" t="inlineStr"/>
+      <c r="BF50" t="inlineStr"/>
+      <c r="BG50" t="inlineStr"/>
+      <c r="BH50" t="inlineStr"/>
+      <c r="BI50" t="inlineStr"/>
+      <c r="BJ50" t="inlineStr"/>
+      <c r="BK50" t="inlineStr"/>
+      <c r="BL50" t="inlineStr"/>
+      <c r="BM50" t="inlineStr"/>
+      <c r="BN50" t="inlineStr"/>
+      <c r="BO50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>625</v>
+      </c>
+      <c r="C51" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Function group 17</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 15-18, there is a maximum of 3 initial/training years ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr"/>
+      <c r="AS51" t="inlineStr"/>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AU51" t="inlineStr"/>
+      <c r="AV51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr"/>
+      <c r="AX51" t="inlineStr"/>
+      <c r="AY51" t="inlineStr"/>
+      <c r="AZ51" t="inlineStr"/>
+      <c r="BA51" t="inlineStr"/>
+      <c r="BB51" t="inlineStr"/>
+      <c r="BC51" t="inlineStr"/>
+      <c r="BD51" t="inlineStr"/>
+      <c r="BE51" t="inlineStr"/>
+      <c r="BF51" t="inlineStr"/>
+      <c r="BG51" t="inlineStr"/>
+      <c r="BH51" t="inlineStr"/>
+      <c r="BI51" t="inlineStr"/>
+      <c r="BJ51" t="inlineStr"/>
+      <c r="BK51" t="inlineStr"/>
+      <c r="BL51" t="inlineStr"/>
+      <c r="BM51" t="inlineStr"/>
+      <c r="BN51" t="inlineStr"/>
+      <c r="BO51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>625</v>
+      </c>
+      <c r="C52" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Function group 18</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>3.65%</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>The employee's function is classified into one of function groups 1 to 18 based on the FUWA-HBO or Hay methodology system; these function groups are also salary groups. For scales 15-18, there is a maximum of 3 initial/training years ('aanloopjaren'). Holiday allowance: 8% of the monthly salary, paid annually in May. Year-end bonus: A structural year-end bonus of 8.3% is granted in December, calculated on the annual salary. Hourly wage: 1/138th of the monthly salary for a standard position. The annual salary increase depends on the annual performance review: a good review leads to an increase with the standard percentage of the applicable function scale; an excellent review leads to an increase of twice the standard percentage; an insufficient review leads to no salary adjustment. An employee who has reached the maximum of their salary scale can be granted a permanent allowance of up to 15% of their salary. A labor market allowance can be granted if the position is difficult to fill. When an employee temporarily performs all duties of a higher-graded position for more than 30 consecutive calendar days, they are scaled as if appointed to that function (with some exceptions). A one-time gross payment of €250 will be made in April 2016 and a one-time gross payment of €500 in November 2016, pro-rata. The work of students related to the introduction, information, and recruitment of new fellow students is rewarded at the minimum of scale 1. Specific rules apply to student assistants.</t>
+        </is>
+      </c>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr"/>
+      <c r="AS52" t="inlineStr"/>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AU52" t="inlineStr"/>
+      <c r="AV52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr"/>
+      <c r="AX52" t="inlineStr"/>
+      <c r="AY52" t="inlineStr"/>
+      <c r="AZ52" t="inlineStr"/>
+      <c r="BA52" t="inlineStr"/>
+      <c r="BB52" t="inlineStr"/>
+      <c r="BC52" t="inlineStr"/>
+      <c r="BD52" t="inlineStr"/>
+      <c r="BE52" t="inlineStr"/>
+      <c r="BF52" t="inlineStr"/>
+      <c r="BG52" t="inlineStr"/>
+      <c r="BH52" t="inlineStr"/>
+      <c r="BI52" t="inlineStr"/>
+      <c r="BJ52" t="inlineStr"/>
+      <c r="BK52" t="inlineStr"/>
+      <c r="BL52" t="inlineStr"/>
+      <c r="BM52" t="inlineStr"/>
+      <c r="BN52" t="inlineStr"/>
+      <c r="BO52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>625</v>
+      </c>
+      <c r="C53" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Pension</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr">
+        <is>
+          <t>The conditions must in any case include a regulation regarding the payment of pension premiums. In accordance with the provisions in the ABP pension agreement, the employer will in all cases recover the determined minimum percentage. For leave exclusively in the personal interest of the employee, the payment of the entire pension premium (both employer's and employee's part) is borne by the employee. For leave predominantly in the general interest, the employer's share is paid by the employer. The number of service years valid for ABP pension is decisive for reaching a service anniversary. Pension accrual is based on the ABP regulations.</t>
+        </is>
+      </c>
+      <c r="AR53" t="inlineStr">
+        <is>
+          <t>Employees who are 10 years away from the AOW-entitled age, have a contract of at least 0.4 FTE, and 5 consecutive years of service in higher professional education can opt to reduce their working hours by a maximum of 20% for up to 5 years. During this period, the employee pays a personal contribution on the salary corresponding to the reduced hours. This contribution is 45% for the period 10 to 5 years before the AOW age, and 25% for the period 5 to 0 years before the AOW age. For employees in scales 1 to 7, these percentages are 35% and 20%, respectively.</t>
+        </is>
+      </c>
+      <c r="AS53" t="inlineStr">
+        <is>
+          <t>AOW-entitled age: the age from which the employee receives a benefit under the General Old Age Act (AOW).</t>
+        </is>
+      </c>
+      <c r="AT53" t="inlineStr">
+        <is>
+          <t>Employees who have reached the AOW-entitled age minus 10 years are eligible for the Senior Work Reduction Scheme.</t>
+        </is>
+      </c>
+      <c r="AU53" t="inlineStr"/>
+      <c r="AV53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr"/>
+      <c r="AX53" t="inlineStr"/>
+      <c r="AY53" t="inlineStr"/>
+      <c r="AZ53" t="inlineStr"/>
+      <c r="BA53" t="inlineStr"/>
+      <c r="BB53" t="inlineStr"/>
+      <c r="BC53" t="inlineStr"/>
+      <c r="BD53" t="inlineStr"/>
+      <c r="BE53" t="inlineStr"/>
+      <c r="BF53" t="inlineStr"/>
+      <c r="BG53" t="inlineStr"/>
+      <c r="BH53" t="inlineStr"/>
+      <c r="BI53" t="inlineStr"/>
+      <c r="BJ53" t="inlineStr"/>
+      <c r="BK53" t="inlineStr"/>
+      <c r="BL53" t="inlineStr"/>
+      <c r="BM53" t="inlineStr"/>
+      <c r="BN53" t="inlineStr"/>
+      <c r="BO53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>625</v>
+      </c>
+      <c r="C54" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr"/>
+      <c r="AS54" t="inlineStr"/>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AU54" t="inlineStr"/>
+      <c r="AV54" t="inlineStr">
+        <is>
+          <t>The female employee is entitled to pregnancy and maternity leave. Pregnancy leave starts between 6 and 4 weeks before the presumed delivery date and lasts until the delivery. Maternity leave starts the day after delivery and is for 10 consecutive weeks, extended by any days of pregnancy leave that were taken less than 6 weeks. In case of adoption, a maximum of 4 weeks of paid leave is granted, which can be extended to a maximum of 6 weeks for a foreign child. The partner is entitled to paid leave for the day of delivery and a maximum of 5 working days of paternity leave, to be taken within 4 weeks of the child residing at the same address.</t>
+        </is>
+      </c>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Pregnancy and maternity leave are paid. During adoption leave, salary payment is 100%. Partner leave for delivery and paternity leave is paid.</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>The provisions of the Work and Care Act (Wet Arbeid en Zorg - WAZO) apply. The employee is entitled to unpaid parental leave in accordance with the WAZO. Adoption leave starts from 4 weeks before the child's placement and must be taken within a 26-week period, but does not need to be consecutive. Paternity leave days do not need to be taken consecutively.</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr">
+        <is>
+          <t>An employee with a 36-hour workweek is entitled to 219 hours of vacation per calendar year. An employee with a 38-hour workweek is entitled to 323 hours. An employee with a 40-hour workweek is entitled to 428 hours.</t>
+        </is>
+      </c>
+      <c r="AZ54" t="inlineStr">
+        <is>
+          <t>hours per calendar year</t>
+        </is>
+      </c>
+      <c r="BA54" t="inlineStr">
+        <is>
+          <t>The holiday allowance is 8% of the monthly salary, paid annually in May. For part-time employees, vacation hours are calculated proportionally. An employee who is ill accrues vacation hours based on the statutory minimum (four times the weekly working hours). Non-statutory vacation hours are accrued only during the first 6 months of sick leave. Vacation not taken due to illness or service interests can be carried over to the next year. The employer can designate up to one week and four separate days as mandatory vacation days per year, with the consent of the PMR.</t>
+        </is>
+      </c>
+      <c r="BB54" t="inlineStr"/>
+      <c r="BC54" t="inlineStr"/>
+      <c r="BD54" t="inlineStr"/>
+      <c r="BE54" t="inlineStr"/>
+      <c r="BF54" t="inlineStr"/>
+      <c r="BG54" t="inlineStr"/>
+      <c r="BH54" t="inlineStr"/>
+      <c r="BI54" t="inlineStr"/>
+      <c r="BJ54" t="inlineStr"/>
+      <c r="BK54" t="inlineStr"/>
+      <c r="BL54" t="inlineStr"/>
+      <c r="BM54" t="inlineStr"/>
+      <c r="BN54" t="inlineStr"/>
+      <c r="BO54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>625</v>
+      </c>
+      <c r="C55" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr"/>
+      <c r="AS55" t="inlineStr"/>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AU55" t="inlineStr"/>
+      <c r="AV55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr"/>
+      <c r="AX55" t="inlineStr"/>
+      <c r="AY55" t="inlineStr"/>
+      <c r="AZ55" t="inlineStr"/>
+      <c r="BA55" t="inlineStr"/>
+      <c r="BB55" t="inlineStr">
+        <is>
+          <t>The notice period is three months. This period is extended for the employer by one week for each full year of service after the employee turned 45, with a maximum extension of 13 weeks. A one-month notice period applies for termination due to reaching the AOW-entitled age. A one-month notice period applies for termination due to frequent absence with unacceptable consequences. For termination due to unsuitability, statutory notice periods apply.</t>
+        </is>
+      </c>
+      <c r="BC55" t="inlineStr">
+        <is>
+          <t>Termination by the employer is only possible for specific reasons, such as redundancy, long-term illness, unsuitability, culpable acts, or a disturbed working relationship. Notice must be given in writing. The dismissal becomes effective on the first day of the following calendar month, unless otherwise agreed. For redundancy, the employer must seek permission from an independent dismissal committee, which replaces the UWV for this purpose.</t>
+        </is>
+      </c>
+      <c r="BD55" t="inlineStr">
+        <is>
+          <t>The notice period for the employee is three months.</t>
+        </is>
+      </c>
+      <c r="BE55" t="inlineStr">
+        <is>
+          <t>Notice must be given in writing. The dismissal becomes effective on the first day of the following calendar month, unless otherwise agreed.</t>
+        </is>
+      </c>
+      <c r="BF55" t="inlineStr">
+        <is>
+          <t>The employment contract can be terminated immediately by either party during the probationary period as defined in Article 7:652 of the Civil Code.</t>
+        </is>
+      </c>
+      <c r="BG55" t="inlineStr">
+        <is>
+          <t>No probationary period can be agreed upon for a fixed-term contract that has the prospect of becoming a permanent contract. During the probationary period, the contract can be terminated immediately without a statement of reasons if either the employer or employee wishes to do so.</t>
+        </is>
+      </c>
+      <c r="BH55" t="inlineStr"/>
+      <c r="BI55" t="inlineStr"/>
+      <c r="BJ55" t="inlineStr"/>
+      <c r="BK55" t="inlineStr"/>
+      <c r="BL55" t="inlineStr"/>
+      <c r="BM55" t="inlineStr"/>
+      <c r="BN55" t="inlineStr"/>
+      <c r="BO55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>625</v>
+      </c>
+      <c r="C56" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
+      <c r="AO56" t="inlineStr"/>
+      <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="inlineStr"/>
+      <c r="AS56" t="inlineStr"/>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AU56" t="inlineStr"/>
+      <c r="AV56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr"/>
+      <c r="AX56" t="inlineStr"/>
+      <c r="AY56" t="inlineStr"/>
+      <c r="AZ56" t="inlineStr"/>
+      <c r="BA56" t="inlineStr"/>
+      <c r="BB56" t="inlineStr"/>
+      <c r="BC56" t="inlineStr"/>
+      <c r="BD56" t="inlineStr"/>
+      <c r="BE56" t="inlineStr"/>
+      <c r="BF56" t="inlineStr"/>
+      <c r="BG56" t="inlineStr"/>
+      <c r="BH56" t="inlineStr">
+        <is>
+          <t>Compensation for overtime consists of either time off equal to the hours worked, or a monetary payment equal to the hourly wage. In addition to this, a monetary allowance is provided as a percentage of the hourly wage. This allowance varies from 25% to 100% depending on the day and time the overtime is worked. This applies to employees in scales 1 to 10.</t>
+        </is>
+      </c>
+      <c r="BI56" t="inlineStr">
+        <is>
+          <t>A working day consists of a maximum of ten consecutive hours. As a rule, no more than eight hours are worked per day.</t>
+        </is>
+      </c>
+      <c r="BJ56" t="inlineStr"/>
+      <c r="BK56" t="inlineStr">
+        <is>
+          <t>An allowance is granted to non-teaching staff in scales 1 to 10 who regularly work outside of Monday to Friday, 08:00 to 18:00. The allowance is a percentage of the hourly wage (capped at the maximum of scale 6) and is as follows: 20% for Mon-Fri 06:00-08:00 and 18:00-22:00 (only if work starts before 07:00 or ends after 20:00); 40% for Saturdays 06:00-22:00; 40% for Mon-Sat 00:00-06:00 and 22:00-24:00; 65% for non-working days.</t>
+        </is>
+      </c>
+      <c r="BL56" t="inlineStr">
+        <is>
+          <t>No compensation is given for overtime lasting less than one hour. A monetary allowance for overtime worked on weekdays between 08:00 and 18:00 is only paid if the standard working hours are exceeded. The minimum allowance is 25% for overtime on weekdays between 06:00 and 22:00.</t>
+        </is>
+      </c>
+      <c r="BM56" t="inlineStr">
+        <is>
+          <t>The maximum overtime allowance is 100% for work performed on weekends between 00:00-06:00 and 22:00-24:00, or on a non-working day.</t>
+        </is>
+      </c>
+      <c r="BN56" t="inlineStr"/>
+      <c r="BO56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>625</v>
+      </c>
+      <c r="C57" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="inlineStr"/>
+      <c r="AS57" t="inlineStr"/>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AU57" t="inlineStr"/>
+      <c r="AV57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr"/>
+      <c r="AX57" t="inlineStr"/>
+      <c r="AY57" t="inlineStr"/>
+      <c r="AZ57" t="inlineStr"/>
+      <c r="BA57" t="inlineStr"/>
+      <c r="BB57" t="inlineStr"/>
+      <c r="BC57" t="inlineStr"/>
+      <c r="BD57" t="inlineStr"/>
+      <c r="BE57" t="inlineStr"/>
+      <c r="BF57" t="inlineStr"/>
+      <c r="BG57" t="inlineStr"/>
+      <c r="BH57" t="inlineStr"/>
+      <c r="BI57" t="inlineStr"/>
+      <c r="BJ57" t="inlineStr"/>
+      <c r="BK57" t="inlineStr"/>
+      <c r="BL57" t="inlineStr"/>
+      <c r="BM57" t="inlineStr"/>
+      <c r="BN57" t="inlineStr">
+        <is>
+          <t>The employer must annually spend at least 6% of the total annual income on professionalization, split between a basic right in hours (3%) and out-of-pocket costs (3%). Employees with a contract of 0.4 FTE or more have a basic right to at least 40 hours per year for maintaining competence. For smaller contracts, this is pro-rated (e.g., 10 hours for 0.1 FTE). Training that is part of the professionalization plan is 75% facilitated by the employer; training outside the plan is 25% facilitated. Training mandated by the employer is 100% compensated in time and money. Starting teachers are facilitated to obtain the Basic Didactic Competence Qualification.</t>
+        </is>
+      </c>
+      <c r="BO57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>cao20162017_definitief.json</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>625</v>
+      </c>
+      <c r="C58" t="n">
+        <v>625003</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Homeoffice</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>01/04/2016</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>31/03/2017</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>27/05/2016</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
+      <c r="AO58" t="inlineStr"/>
+      <c r="AP58" t="inlineStr"/>
+      <c r="AQ58" t="inlineStr"/>
+      <c r="AR58" t="inlineStr"/>
+      <c r="AS58" t="inlineStr"/>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AU58" t="inlineStr"/>
+      <c r="AV58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr"/>
+      <c r="AX58" t="inlineStr"/>
+      <c r="AY58" t="inlineStr"/>
+      <c r="AZ58" t="inlineStr"/>
+      <c r="BA58" t="inlineStr"/>
+      <c r="BB58" t="inlineStr"/>
+      <c r="BC58" t="inlineStr"/>
+      <c r="BD58" t="inlineStr"/>
+      <c r="BE58" t="inlineStr"/>
+      <c r="BF58" t="inlineStr"/>
+      <c r="BG58" t="inlineStr"/>
+      <c r="BH58" t="inlineStr"/>
+      <c r="BI58" t="inlineStr"/>
+      <c r="BJ58" t="inlineStr"/>
+      <c r="BK58" t="inlineStr"/>
+      <c r="BL58" t="inlineStr"/>
+      <c r="BM58" t="inlineStr"/>
+      <c r="BN58" t="inlineStr"/>
+      <c r="BO58" t="inlineStr">
+        <is>
+          <t>Employees are required to perform their duties at the institution's premises, unless an exemption is granted by the employer. An exemption will be granted if the housing situation necessitates it. Teleworking is a topic for which a budget (1.41% of total annual income) is available for decentralized consultation and agreement between the employer and local unions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CAO Facilitaire contactcenters 2019 - 2021 versie 10.11.2020.json</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2070007</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>11/12/2020</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>Minimum salary is 101.5% of the Statutory Minimum Wage (WML). This model is effective from January 1, 2021. The hourly salary is 1/173.33 of the gross monthly salary. A system with 6 function levels was in effect until December 31, 2020, but the corresponding salary tables are incomplete in the text. An annual individual salary adjustment is determined by a formula based on the employee's performance score and the annual percentage increase of the WML. For younger employees, the employer may apply the statutory youth wage as the base instead of the WML.</t>
+        </is>
+      </c>
+      <c r="AP59" t="inlineStr">
+        <is>
+          <t>22 years and older</t>
+        </is>
+      </c>
+      <c r="AQ59" t="inlineStr"/>
+      <c r="AR59" t="inlineStr"/>
+      <c r="AS59" t="inlineStr"/>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AU59" t="inlineStr"/>
+      <c r="AV59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr"/>
+      <c r="AX59" t="inlineStr"/>
+      <c r="AY59" t="inlineStr"/>
+      <c r="AZ59" t="inlineStr"/>
+      <c r="BA59" t="inlineStr"/>
+      <c r="BB59" t="inlineStr"/>
+      <c r="BC59" t="inlineStr"/>
+      <c r="BD59" t="inlineStr"/>
+      <c r="BE59" t="inlineStr"/>
+      <c r="BF59" t="inlineStr"/>
+      <c r="BG59" t="inlineStr"/>
+      <c r="BH59" t="inlineStr"/>
+      <c r="BI59" t="inlineStr"/>
+      <c r="BJ59" t="inlineStr"/>
+      <c r="BK59" t="inlineStr"/>
+      <c r="BL59" t="inlineStr"/>
+      <c r="BM59" t="inlineStr"/>
+      <c r="BN59" t="inlineStr"/>
+      <c r="BO59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CAO Facilitaire contactcenters 2019 - 2021 versie 10.11.2020.json</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2070007</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>11/12/2020</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Medior</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>Minimum salary is 103.5% of the Statutory Minimum Wage (WML). This model is effective from January 1, 2021. The hourly salary is 1/173.33 of the gross monthly salary. A system with 6 function levels was in effect until December 31, 2020, but the corresponding salary tables are incomplete in the text. An annual individual salary adjustment is determined by a formula based on the employee's performance score and the annual percentage increase of the WML. For younger employees, the employer may apply the statutory youth wage as the base instead of the WML.</t>
+        </is>
+      </c>
+      <c r="AP60" t="inlineStr">
+        <is>
+          <t>22 years and older</t>
+        </is>
+      </c>
+      <c r="AQ60" t="inlineStr"/>
+      <c r="AR60" t="inlineStr"/>
+      <c r="AS60" t="inlineStr"/>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AU60" t="inlineStr"/>
+      <c r="AV60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr"/>
+      <c r="AX60" t="inlineStr"/>
+      <c r="AY60" t="inlineStr"/>
+      <c r="AZ60" t="inlineStr"/>
+      <c r="BA60" t="inlineStr"/>
+      <c r="BB60" t="inlineStr"/>
+      <c r="BC60" t="inlineStr"/>
+      <c r="BD60" t="inlineStr"/>
+      <c r="BE60" t="inlineStr"/>
+      <c r="BF60" t="inlineStr"/>
+      <c r="BG60" t="inlineStr"/>
+      <c r="BH60" t="inlineStr"/>
+      <c r="BI60" t="inlineStr"/>
+      <c r="BJ60" t="inlineStr"/>
+      <c r="BK60" t="inlineStr"/>
+      <c r="BL60" t="inlineStr"/>
+      <c r="BM60" t="inlineStr"/>
+      <c r="BN60" t="inlineStr"/>
+      <c r="BO60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>CAO Facilitaire contactcenters 2019 - 2021 versie 10.11.2020.json</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2070007</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Wage</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>11/12/2020</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Senior</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>Minimum salary is 105.5% of the Statutory Minimum Wage (WML). This model is effective from January 1, 2021. The hourly salary is 1/173.33 of the gross monthly salary. A system with 6 function levels was in effect until December 31, 2020, but the corresponding salary tables are incomplete in the text. An annual individual salary adjustment is determined by a formula based on the employee's performance score and the annual percentage increase of the WML. For younger employees, the employer may apply the statutory youth wage as the base instead of the WML.</t>
+        </is>
+      </c>
+      <c r="AP61" t="inlineStr">
+        <is>
+          <t>22 years and older</t>
+        </is>
+      </c>
+      <c r="AQ61" t="inlineStr"/>
+      <c r="AR61" t="inlineStr"/>
+      <c r="AS61" t="inlineStr"/>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AU61" t="inlineStr"/>
+      <c r="AV61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr"/>
+      <c r="AX61" t="inlineStr"/>
+      <c r="AY61" t="inlineStr"/>
+      <c r="AZ61" t="inlineStr"/>
+      <c r="BA61" t="inlineStr"/>
+      <c r="BB61" t="inlineStr"/>
+      <c r="BC61" t="inlineStr"/>
+      <c r="BD61" t="inlineStr"/>
+      <c r="BE61" t="inlineStr"/>
+      <c r="BF61" t="inlineStr"/>
+      <c r="BG61" t="inlineStr"/>
+      <c r="BH61" t="inlineStr"/>
+      <c r="BI61" t="inlineStr"/>
+      <c r="BJ61" t="inlineStr"/>
+      <c r="BK61" t="inlineStr"/>
+      <c r="BL61" t="inlineStr"/>
+      <c r="BM61" t="inlineStr"/>
+      <c r="BN61" t="inlineStr"/>
+      <c r="BO61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CAO Facilitaire contactcenters 2019 - 2021 versie 10.11.2020.json</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2070007</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Pension</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>11/12/2020</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
+      <c r="AO62" t="inlineStr"/>
+      <c r="AP62" t="inlineStr"/>
+      <c r="AQ62" t="inlineStr">
+        <is>
+          <t>If no pension scheme applies to an employee at the individual employer, the employee who previously had a pension scheme at a temporary employment or payroll organization will receive a monthly gross compensation equal to the employer's contribution that was paid for them there. It is being considered whether to include a pension scheme for all employees in the CAO.</t>
+        </is>
+      </c>
+      <c r="AR62" t="inlineStr"/>
+      <c r="AS62" t="inlineStr">
+        <is>
+          <t>The employment contract ends upon reaching the AOW-eligible age.</t>
+        </is>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AU62" t="inlineStr"/>
+      <c r="AV62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr"/>
+      <c r="AX62" t="inlineStr"/>
+      <c r="AY62" t="inlineStr"/>
+      <c r="AZ62" t="inlineStr"/>
+      <c r="BA62" t="inlineStr"/>
+      <c r="BB62" t="inlineStr"/>
+      <c r="BC62" t="inlineStr"/>
+      <c r="BD62" t="inlineStr"/>
+      <c r="BE62" t="inlineStr"/>
+      <c r="BF62" t="inlineStr"/>
+      <c r="BG62" t="inlineStr"/>
+      <c r="BH62" t="inlineStr"/>
+      <c r="BI62" t="inlineStr"/>
+      <c r="BJ62" t="inlineStr"/>
+      <c r="BK62" t="inlineStr"/>
+      <c r="BL62" t="inlineStr"/>
+      <c r="BM62" t="inlineStr"/>
+      <c r="BN62" t="inlineStr"/>
+      <c r="BO62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CAO Facilitaire contactcenters 2019 - 2021 versie 10.11.2020.json</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2070007</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>11/12/2020</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
+      <c r="AO63" t="inlineStr"/>
+      <c r="AP63" t="inlineStr"/>
+      <c r="AQ63" t="inlineStr"/>
+      <c r="AR63" t="inlineStr"/>
+      <c r="AS63" t="inlineStr"/>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AU63" t="inlineStr"/>
+      <c r="AV63" t="inlineStr">
+        <is>
+          <t>All leave arrangements under the Dutch Work and Care Act (Wet arbeid en zorg) are applicable, which includes pregnancy and maternity leave, birth leave (partner leave), parental leave, and adoption or foster care leave. For the birth of a child, the partner is entitled to two days of leave.</t>
+        </is>
+      </c>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>For sickness, pregnancy, or childbirth, the provisions of Article 7:629 of the Dutch Civil Code, the Sickness Benefits Act (Ziektewet), and the Work and Care Act (Wet arbeid en zorg) apply. The two days of leave for the partner for childbirth are with continued payment of salary.</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Vacation entitlements are accrued during pregnancy and maternity leave. All leave arrangements from the Work and Care Act (Wet arbeid en zorg) are applicable to this CAO.</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr">
+        <is>
+          <t>A full-time employee is entitled to 22 working days, or 176 hours, of paid vacation per year. An employee who is not absent due to sickness in a full quarter receives a Sickness Reduction Bonus of one extra vacation day, with a potential total of 4 extra days per year.</t>
+        </is>
+      </c>
+      <c r="AZ63" t="inlineStr">
+        <is>
+          <t>days per vacation year</t>
+        </is>
+      </c>
+      <c r="BA63" t="inlineStr">
+        <is>
+          <t>The vacation year coincides with the calendar year. Entitlement is pro-rata for employees who work only part of the year. A vacation day can be requested for a non-Christian religious holiday. Employees are entitled to take at least 2 consecutive weeks of vacation annually. Upon termination, any surplus or deficit of vacation hours is settled. No vacation is accrued during unpaid leave, but it is accrued during sick leave (unless the employee hinders recovery) and maternity leave. A holiday allowance of 8% of the monthly salary is accrued from June 1st to May 31st and paid in June. The Sickness Reduction Bonus is not applicable if the employer pays for waiting days, supplements sick pay to 100%, or already grants 26 or more vacation days.</t>
+        </is>
+      </c>
+      <c r="BB63" t="inlineStr"/>
+      <c r="BC63" t="inlineStr"/>
+      <c r="BD63" t="inlineStr"/>
+      <c r="BE63" t="inlineStr"/>
+      <c r="BF63" t="inlineStr"/>
+      <c r="BG63" t="inlineStr"/>
+      <c r="BH63" t="inlineStr"/>
+      <c r="BI63" t="inlineStr"/>
+      <c r="BJ63" t="inlineStr"/>
+      <c r="BK63" t="inlineStr"/>
+      <c r="BL63" t="inlineStr"/>
+      <c r="BM63" t="inlineStr"/>
+      <c r="BN63" t="inlineStr"/>
+      <c r="BO63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CAO Facilitaire contactcenters 2019 - 2021 versie 10.11.2020.json</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2070007</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Termination</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>11/12/2020</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
+      <c r="AO64" t="inlineStr"/>
+      <c r="AP64" t="inlineStr"/>
+      <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr"/>
+      <c r="AS64" t="inlineStr"/>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AU64" t="inlineStr"/>
+      <c r="AV64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr"/>
+      <c r="AX64" t="inlineStr"/>
+      <c r="AY64" t="inlineStr"/>
+      <c r="AZ64" t="inlineStr"/>
+      <c r="BA64" t="inlineStr"/>
+      <c r="BB64" t="inlineStr">
+        <is>
+          <t>1 month</t>
+        </is>
+      </c>
+      <c r="BC64" t="inlineStr">
+        <is>
+          <t>The notice period starts on the day following the date of the termination letter. Termination can occur on any day of the month, not necessarily at the end of the month. For fixed-term contracts of 6 months or longer, the employer must provide written notice at least one month before the end date about whether the contract will be renewed and under what conditions. Within a 36-month period, a maximum of 6 consecutive fixed-term contracts can be concluded.</t>
+        </is>
+      </c>
+      <c r="BD64" t="inlineStr">
+        <is>
+          <t>1 month</t>
+        </is>
+      </c>
+      <c r="BE64" t="inlineStr">
+        <is>
+          <t>The notice period starts on the day following the date of the termination letter. Termination can occur on any day of the month, not necessarily at the end of the month.</t>
+        </is>
+      </c>
+      <c r="BF64" t="inlineStr">
+        <is>
+          <t>No probation period for contracts of 6 months or less. For contracts longer than 6 months but less than two years, or for project-based contracts: 1 month. For contracts of two years or longer, or for an indefinite period: 2 months.</t>
+        </is>
+      </c>
+      <c r="BG64" t="inlineStr">
+        <is>
+          <t>The probation period must be agreed upon in writing. During the probation period, either party can terminate the contract with immediate effect. No probation period can be included in a subsequent contract with the same employer, unless the new contract requires clearly different skills or responsibilities.</t>
+        </is>
+      </c>
+      <c r="BH64" t="inlineStr"/>
+      <c r="BI64" t="inlineStr"/>
+      <c r="BJ64" t="inlineStr"/>
+      <c r="BK64" t="inlineStr"/>
+      <c r="BL64" t="inlineStr"/>
+      <c r="BM64" t="inlineStr"/>
+      <c r="BN64" t="inlineStr"/>
+      <c r="BO64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CAO Facilitaire contactcenters 2019 - 2021 versie 10.11.2020.json</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2070007</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Overtime</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>11/12/2020</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
+      <c r="AO65" t="inlineStr"/>
+      <c r="AP65" t="inlineStr"/>
+      <c r="AQ65" t="inlineStr"/>
+      <c r="AR65" t="inlineStr"/>
+      <c r="AS65" t="inlineStr"/>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AU65" t="inlineStr"/>
+      <c r="AV65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr"/>
+      <c r="AX65" t="inlineStr"/>
+      <c r="AY65" t="inlineStr"/>
+      <c r="AZ65" t="inlineStr"/>
+      <c r="BA65" t="inlineStr"/>
+      <c r="BB65" t="inlineStr"/>
+      <c r="BC65" t="inlineStr"/>
+      <c r="BD65" t="inlineStr"/>
+      <c r="BE65" t="inlineStr"/>
+      <c r="BF65" t="inlineStr"/>
+      <c r="BG65" t="inlineStr"/>
+      <c r="BH65" t="inlineStr">
+        <is>
+          <t>Extra hours ('meeruren') are hours worked above the employee's contractual hours but not exceeding the normal weekly working time. These are paid at the normal hourly rate, and vacation/holiday pay accrues on them. Overtime ('overwerk') is work that causes the employee to exceed the standard 2,080 hours in a calendar year. Overtime hours are compensated in time off on a one-for-one basis. At the end of the calendar year, any remaining overtime hours are paid out at 100% of the hourly wage.</t>
+        </is>
+      </c>
+      <c r="BI65" t="inlineStr">
+        <is>
+          <t>The normal working hours are a maximum of 12 hours per day, an average of 40 hours per week, and a maximum of 5 days per week.</t>
+        </is>
+      </c>
+      <c r="BJ65" t="inlineStr"/>
+      <c r="BK65" t="inlineStr">
+        <is>
+          <t>An allowance is paid for work performed outside the day window of 08:00 - 22:00. The allowance is a percentage of the hourly wage: 50% for Monday-Friday 22:00-08:00; 50% for Saturday 00:00-08:00 and 22:00-24:00; 50% on Sunday (all day); 100% on public holidays (all day). There is no surcharge for work between 08:00-22:00 on Monday through Saturday.</t>
+        </is>
+      </c>
+      <c r="BL65" t="inlineStr">
+        <is>
+          <t>An extension of work of less than 5 minutes immediately following the end of a shift to handle customer contact is not considered extra work.</t>
+        </is>
+      </c>
+      <c r="BM65" t="inlineStr"/>
+      <c r="BN65" t="inlineStr"/>
+      <c r="BO65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CAO Facilitaire contactcenters 2019 - 2021 versie 10.11.2020.json</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2070007</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>11/12/2020</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
+      <c r="AO66" t="inlineStr"/>
+      <c r="AP66" t="inlineStr"/>
+      <c r="AQ66" t="inlineStr"/>
+      <c r="AR66" t="inlineStr"/>
+      <c r="AS66" t="inlineStr"/>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AU66" t="inlineStr"/>
+      <c r="AV66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr"/>
+      <c r="AX66" t="inlineStr"/>
+      <c r="AY66" t="inlineStr"/>
+      <c r="AZ66" t="inlineStr"/>
+      <c r="BA66" t="inlineStr"/>
+      <c r="BB66" t="inlineStr"/>
+      <c r="BC66" t="inlineStr"/>
+      <c r="BD66" t="inlineStr"/>
+      <c r="BE66" t="inlineStr"/>
+      <c r="BF66" t="inlineStr"/>
+      <c r="BG66" t="inlineStr"/>
+      <c r="BH66" t="inlineStr"/>
+      <c r="BI66" t="inlineStr"/>
+      <c r="BJ66" t="inlineStr"/>
+      <c r="BK66" t="inlineStr"/>
+      <c r="BL66" t="inlineStr"/>
+      <c r="BM66" t="inlineStr"/>
+      <c r="BN66" t="inlineStr">
+        <is>
+          <t>The employer must offer training to enable the employee to perform their duties, including general skills and product training, and the employee is required to participate. Employers must have a study facilities/training regulation. Payment for training hours can be made conditional on completing the training or starting the work, provided an education agreement is signed. Training is also provided on limiting consumer irritation during outbound calls. Quality monitoring is used as a tool for coaching, development, and guidance. Union-appointed officials can receive paid leave for union consultation twice a year.</t>
+        </is>
+      </c>
+      <c r="BO66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CAO Facilitaire contactcenters 2019 - 2021 versie 10.11.2020.json</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2070</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2070007</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Homeoffice</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>11/12/2020</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
+      <c r="AO67" t="inlineStr"/>
+      <c r="AP67" t="inlineStr"/>
+      <c r="AQ67" t="inlineStr"/>
+      <c r="AR67" t="inlineStr"/>
+      <c r="AS67" t="inlineStr"/>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AU67" t="inlineStr"/>
+      <c r="AV67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr"/>
+      <c r="AX67" t="inlineStr"/>
+      <c r="AY67" t="inlineStr"/>
+      <c r="AZ67" t="inlineStr"/>
+      <c r="BA67" t="inlineStr"/>
+      <c r="BB67" t="inlineStr"/>
+      <c r="BC67" t="inlineStr"/>
+      <c r="BD67" t="inlineStr"/>
+      <c r="BE67" t="inlineStr"/>
+      <c r="BF67" t="inlineStr"/>
+      <c r="BG67" t="inlineStr"/>
+      <c r="BH67" t="inlineStr"/>
+      <c r="BI67" t="inlineStr"/>
+      <c r="BJ67" t="inlineStr"/>
+      <c r="BK67" t="inlineStr"/>
+      <c r="BL67" t="inlineStr"/>
+      <c r="BM67" t="inlineStr"/>
+      <c r="BN67" t="inlineStr"/>
+      <c r="BO67" t="inlineStr">
+        <is>
+          <t>An employee who has agreed with the employer to work from home is entitled to a monthly home office allowance. If the employee uses their own laptop/PC, the allowance is €35 per month, pro-rated based on the number of days worked from home. If the employer provides a laptop/PC, the allowance is €25 per month, pro-rated. The allowance is not paid on days the employee did not work due to leave or sickness. Employees are only eligible for a commuting allowance on days they do not receive a home office allowance.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
